--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -67,13 +67,10 @@
     <t>CollisionComponent</t>
   </si>
   <si>
-    <t>MoveComponent</t>
+    <t>主动监听碰撞1 被动监听碰撞0</t>
   </si>
   <si>
     <t>SpawnComponent</t>
-  </si>
-  <si>
-    <t>TagComponent</t>
   </si>
 </sst>
 </file>
@@ -689,12 +686,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,16 +1007,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -1037,15 +1039,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1062,15 +1055,10 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -1105,36 +1093,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="3:4">
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1142,87 +1128,44 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
+      <c r="D17">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>CharacterComponent</t>
-  </si>
-  <si>
-    <t>CollisionComponent</t>
-  </si>
-  <si>
-    <t>主动监听碰撞1 被动监听碰撞0</t>
   </si>
   <si>
     <t>SpawnComponent</t>
@@ -686,15 +680,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,10 +998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,80 +1084,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
+    <row r="9" spans="2:2">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2</v>
-      </c>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>4</v>
-      </c>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>SpawnComponent</t>
+  </si>
+  <si>
+    <t>测试小怪可以用这个当模板控制</t>
+  </si>
+  <si>
+    <t>FSMComponent</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1097,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1106,6 +1112,9 @@
       </c>
       <c r="D11">
         <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -1124,58 +1133,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1102</v>
+      <c r="E16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19">
+    <row r="19" customFormat="1" spans="3:4">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>1102</v>
+      <c r="E20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="3:4">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="16810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>FSMComponent</t>
+  </si>
+  <si>
+    <t>EffectComponent</t>
+  </si>
+  <si>
+    <t>BulletComponent</t>
+  </si>
+  <si>
+    <t>GoComponent</t>
+  </si>
+  <si>
+    <t>TagComponent</t>
   </si>
 </sst>
 </file>
@@ -1004,23 +1016,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="42.25" customWidth="1"/>
+    <col min="5" max="5" width="42.2545454545455" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="10" width="10.625" customWidth="1"/>
+    <col min="8" max="10" width="10.6272727272727" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="22.7545454545455" customWidth="1"/>
+    <col min="13" max="13" width="21.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1215,6 +1227,68 @@
       </c>
       <c r="D23">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1307,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1250,7 +1324,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>TagComponent</t>
+  </si>
+  <si>
+    <t>DestroyComponent</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1288,6 +1291,49 @@
         <v>17</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16810" windowHeight="7230"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -91,12 +78,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,24 +94,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +116,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +224,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,73 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +247,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,73 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,61 +409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +438,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,45 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,173 +538,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,52 +698,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1019,23 +1006,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="42.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="10" width="10.6272727272727" customWidth="1"/>
+    <col min="8" max="10" width="10.6296296296296" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.7545454545455" customWidth="1"/>
-    <col min="13" max="13" width="21.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="21.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1335,6 +1322,17 @@
       </c>
       <c r="D39">
         <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1351,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1370,7 +1368,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,13 +94,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -117,13 +111,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,15 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,60 +126,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +139,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,9 +216,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,41 +438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,7 +460,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,7 +499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +518,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1332,7 +1332,23 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>1002</v>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -1019,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1334,6 +1334,49 @@
         <v>15</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -98,17 +85,29 @@
   </si>
   <si>
     <t>BOSS待机动画</t>
+  </si>
+  <si>
+    <t>绿色区域石像</t>
+  </si>
+  <si>
+    <t>TagComponent</t>
+  </si>
+  <si>
+    <t>InteractiveComponent</t>
+  </si>
+  <si>
+    <t>红色区域石像</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -142,42 +141,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,85 +165,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +185,105 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,6 +294,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,7 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +348,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,37 +408,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,97 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +485,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,24 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -533,21 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,19 +571,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,148 +590,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,52 +754,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1063,25 +1062,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.37272727272727" customWidth="1"/>
+    <col min="1" max="1" width="7.37037037037037" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="20.3727272727273" customWidth="1"/>
-    <col min="4" max="4" width="11.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.3703703703704" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.4454545454545" customWidth="1"/>
-    <col min="8" max="10" width="10.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
+    <col min="8" max="10" width="10.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.7727272727273" customWidth="1"/>
-    <col min="13" max="13" width="21.1090909090909" customWidth="1"/>
+    <col min="12" max="12" width="22.7685185185185" customWidth="1"/>
+    <col min="13" max="13" width="21.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2090,6 +2089,82 @@
       </c>
       <c r="D122">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>5500</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>5500</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2183,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2125,7 +2200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -110,13 +110,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -606,150 +612,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,63 +1075,74 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.37272727272727" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="20.3727272727273" customWidth="1"/>
-    <col min="4" max="4" width="11.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="11.2583333333333" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.4454545454545" customWidth="1"/>
-    <col min="8" max="10" width="10.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="20.4416666666667" customWidth="1"/>
+    <col min="8" max="10" width="10.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.7727272727273" customWidth="1"/>
-    <col min="13" max="13" width="21.1090909090909" customWidth="1"/>
+    <col min="12" max="12" width="22.775" customWidth="1"/>
+    <col min="13" max="13" width="21.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1133,7 +1153,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1173,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -1163,7 +1191,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1204,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1185,18 +1217,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
         <v>1001</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>3</v>
       </c>
@@ -1207,7 +1245,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1255,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16"/>
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1265,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17"/>
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1275,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>4</v>
       </c>
@@ -1242,7 +1290,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20"/>
       <c r="C20" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1300,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -1258,7 +1310,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22"/>
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1320,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>7</v>
       </c>
@@ -1277,7 +1335,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1345,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26"/>
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1355,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27"/>
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1365,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
       <c r="B29">
         <v>8</v>
       </c>
@@ -1312,7 +1380,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1390,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31"/>
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1400,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32"/>
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1410,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
       <c r="B34">
         <v>9</v>
       </c>
@@ -1347,7 +1425,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35"/>
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1435,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36"/>
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1445,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37"/>
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1455,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
       <c r="B39">
         <v>10</v>
       </c>
@@ -1382,7 +1470,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40"/>
       <c r="C40" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1480,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41"/>
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1490,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42"/>
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1500,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
       <c r="B44">
         <v>11</v>
       </c>
@@ -1417,7 +1515,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45"/>
       <c r="C45" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1525,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46"/>
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1535,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47"/>
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1545,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
       <c r="B49">
         <v>12</v>
       </c>
@@ -1452,7 +1560,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50"/>
       <c r="C50" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1570,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51"/>
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1580,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52"/>
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1590,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
       <c r="B54">
         <v>13</v>
       </c>
@@ -1486,22 +1604,26 @@
       <c r="D54">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55"/>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55">
         <v>1105</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56"/>
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1634,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57"/>
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -1520,7 +1644,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
       <c r="B59">
         <v>14</v>
       </c>
@@ -1530,22 +1658,26 @@
       <c r="D59">
         <v>6</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60"/>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60">
         <v>1105</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61"/>
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1688,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62"/>
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1698,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
       <c r="B64">
         <v>15</v>
       </c>
@@ -1574,22 +1712,26 @@
       <c r="D64">
         <v>6</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65"/>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65">
         <v>1105</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66"/>
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1742,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67"/>
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1752,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
       <c r="B69">
         <v>16</v>
       </c>
@@ -1618,22 +1766,26 @@
       <c r="D69">
         <v>6</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="3:5">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70"/>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70">
         <v>1105</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="3:5">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71"/>
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1796,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72"/>
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +1806,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
       <c r="B74">
         <v>20</v>
       </c>
@@ -1662,22 +1820,26 @@
       <c r="D74">
         <v>8</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75"/>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75">
         <v>1105</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76"/>
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1850,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1"/>
+      <c r="B77"/>
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1860,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
       <c r="B79">
         <v>22</v>
       </c>
@@ -1706,22 +1874,26 @@
       <c r="D79">
         <v>8</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="3:5">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80"/>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80">
         <v>1105</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81"/>
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -1732,7 +1904,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1"/>
+      <c r="B82"/>
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1914,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
       <c r="B84">
         <v>23</v>
       </c>
@@ -1750,22 +1928,26 @@
       <c r="D84">
         <v>6</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85"/>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85">
         <v>1105</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86"/>
       <c r="C86" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1958,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1"/>
+      <c r="B87"/>
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1968,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
       <c r="B89">
         <v>24</v>
       </c>
@@ -1794,22 +1982,26 @@
       <c r="D89">
         <v>6</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90"/>
       <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90">
         <v>1105</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91"/>
       <c r="C91" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +2012,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1"/>
+      <c r="B92"/>
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +2022,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
       <c r="B94">
         <v>25</v>
       </c>
@@ -1838,22 +2036,26 @@
       <c r="D94">
         <v>6</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95"/>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95">
         <v>1105</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96"/>
       <c r="C96" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +2066,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1"/>
+      <c r="B97"/>
       <c r="C97" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +2076,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1"/>
       <c r="B99">
         <v>26</v>
       </c>
@@ -1882,22 +2090,26 @@
       <c r="D99">
         <v>6</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1"/>
+      <c r="B100"/>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100">
         <v>1105</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1"/>
+      <c r="B101"/>
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +2120,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102"/>
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +2130,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="103" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1"/>
       <c r="B104">
         <v>29</v>
       </c>
@@ -1926,22 +2144,26 @@
       <c r="D104">
         <v>8</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1"/>
+      <c r="B105"/>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105">
         <v>1105</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1"/>
+      <c r="B106"/>
       <c r="C106" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +2174,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1"/>
+      <c r="B107"/>
       <c r="C107" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +2184,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="108" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1"/>
       <c r="B109">
         <v>30</v>
       </c>
@@ -1970,22 +2198,26 @@
       <c r="D109">
         <v>8</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1"/>
+      <c r="B110"/>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110">
         <v>1105</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111"/>
       <c r="C111" t="s">
         <v>11</v>
       </c>
@@ -1996,7 +2228,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1"/>
+      <c r="B112"/>
       <c r="C112" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2238,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1"/>
       <c r="B114">
         <v>31</v>
       </c>
@@ -2014,22 +2252,26 @@
       <c r="D114">
         <v>8</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="1:5">
+      <c r="A115" s="1"/>
+      <c r="B115"/>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115">
         <v>1105</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="1:5">
+      <c r="A116" s="1"/>
+      <c r="B116"/>
       <c r="C116" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2282,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="B117"/>
       <c r="C117" t="s">
         <v>15</v>
       </c>
@@ -2048,7 +2292,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="118" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1"/>
       <c r="B119">
         <v>33</v>
       </c>
@@ -2058,22 +2306,26 @@
       <c r="D119">
         <v>9</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1"/>
+      <c r="B120"/>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120">
         <v>1105</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1"/>
+      <c r="B121"/>
       <c r="C121" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2336,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1"/>
+      <c r="B122"/>
       <c r="C122" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2362,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2125,7 +2379,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterComponentData.xlsx
+++ b/Configs/Datas/CharacterComponentData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -239,10 +239,135 @@
     </r>
   </si>
   <si>
-    <t>爱心石像</t>
+    <t>TagComponent</t>
   </si>
   <si>
-    <t>TagComponent</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">场景2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <t>DestroyComponent</t>
+  </si>
+  <si>
+    <t>绿色区域碎石动画</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">场景3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <t>洞穴区域石像激活动画</t>
+  </si>
+  <si>
+    <t>洞穴区域碎石动画</t>
+  </si>
+  <si>
+    <t>绿色区域石像激活动画</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">场景5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">场景8 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓1</t>
+    </r>
+  </si>
+  <si>
+    <t>注:77~80是坚着的石堆，美术素材暂无</t>
+  </si>
+  <si>
+    <t>这个31后面要换成坚石堆破碎动画</t>
+  </si>
+  <si>
+    <t>回血蘑菇</t>
+  </si>
+  <si>
+    <t>场景3-回血蘑菇</t>
+  </si>
+  <si>
+    <t>InteractiveComponent</t>
+  </si>
+  <si>
+    <t>keyname</t>
+  </si>
+  <si>
+    <t>爱心石像</t>
   </si>
   <si>
     <r>
@@ -266,9 +391,6 @@
       </rPr>
       <t>爱心石像</t>
     </r>
-  </si>
-  <si>
-    <t>InteractiveComponent</t>
   </si>
   <si>
     <t>0对应的是主角E技能的剧情&amp;解锁</t>
@@ -369,6 +491,12 @@
     </r>
   </si>
   <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -407,6 +535,9 @@
     <t>伤害</t>
   </si>
   <si>
+    <t>地刺陷阱动画-草地区域</t>
+  </si>
+  <si>
     <t>42是定向陷阱朝左攻击的动画</t>
   </si>
   <si>
@@ -436,9 +567,6 @@
   <si>
     <t>2朝下攻击</t>
   </si>
-  <si>
-    <t>DestroyComponent</t>
-  </si>
 </sst>
 </file>
 
@@ -450,7 +578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +612,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,6 +779,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -856,7 +1000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -888,6 +1032,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,16 +1165,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,119 +1180,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1318,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,26 +1643,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G755"/>
+  <dimension ref="A1:J928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="C658" sqref="C658"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.36363636363636" customWidth="1"/>
+    <col min="1" max="1" width="7.36666666666667" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="11.2545454545455" customWidth="1"/>
-    <col min="5" max="5" width="38.8909090909091" customWidth="1"/>
-    <col min="6" max="6" width="5.38181818181818" customWidth="1"/>
+    <col min="3" max="3" width="20.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="38.8916666666667" customWidth="1"/>
+    <col min="6" max="6" width="5.38333333333333" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="5.38181818181818" customWidth="1"/>
-    <col min="9" max="9" width="10.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="5.38333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="22.7636363636364" customWidth="1"/>
-    <col min="12" max="12" width="21.1090909090909" customWidth="1"/>
+    <col min="11" max="11" width="22.7666666666667" customWidth="1"/>
+    <col min="12" max="12" width="21.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2211,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>33</v>
@@ -2261,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
         <v>33</v>
@@ -2311,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>33</v>
@@ -2361,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>33</v>
@@ -2411,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
         <v>33</v>
@@ -2461,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
         <v>33</v>
@@ -2511,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
         <v>33</v>
@@ -2561,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
@@ -2611,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -2661,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -4693,7 +4862,7 @@
         <v>17</v>
       </c>
       <c r="D322">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G322" s="2"/>
     </row>
@@ -4733,7 +4902,6 @@
         <v>12</v>
       </c>
       <c r="D326">
-        <f>D321+1</f>
         <v>65</v>
       </c>
       <c r="G326" s="2"/>
@@ -4752,312 +4920,307 @@
     </row>
     <row r="329" spans="2:7">
       <c r="B329">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D329">
-        <v>5500</v>
-      </c>
-      <c r="E329" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G329" s="2"/>
     </row>
     <row r="330" spans="3:7">
       <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330">
+        <v>66</v>
+      </c>
+      <c r="E330" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D330">
-        <v>5</v>
       </c>
       <c r="G330" s="2"/>
     </row>
     <row r="331" spans="3:7">
       <c r="C331" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D331">
-        <v>97</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>51</v>
+        <v>1001</v>
       </c>
       <c r="G331" s="2"/>
     </row>
     <row r="332" spans="3:7">
       <c r="C332" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" s="8">
+        <v>33</v>
+      </c>
+      <c r="E332" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="7:7">
-      <c r="G333" s="2"/>
-    </row>
-    <row r="334" spans="2:7">
-      <c r="B334">
-        <v>98</v>
-      </c>
-      <c r="C334" t="s">
-        <v>11</v>
-      </c>
-      <c r="D334">
-        <v>5500</v>
-      </c>
-      <c r="E334" t="s">
+    <row r="333" spans="3:4">
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335">
+        <f>B329+1</f>
+        <v>67</v>
+      </c>
+      <c r="C335" t="s">
         <v>49</v>
-      </c>
-      <c r="G334" s="2"/>
-    </row>
-    <row r="335" spans="3:7">
-      <c r="C335" t="s">
-        <v>50</v>
       </c>
       <c r="D335">
         <v>5</v>
       </c>
-      <c r="G335" s="2"/>
-    </row>
-    <row r="336" spans="3:7">
+    </row>
+    <row r="336" spans="3:5">
       <c r="C336" t="s">
         <v>12</v>
       </c>
       <c r="D336">
-        <v>98</v>
+        <f>D330+1</f>
+        <v>67</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G336" s="2"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="337" spans="3:7">
       <c r="C337" t="s">
+        <v>51</v>
+      </c>
+      <c r="D337">
+        <v>1001</v>
+      </c>
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="3:8">
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" s="8">
+        <v>33</v>
+      </c>
+      <c r="E338" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D337">
-        <v>1</v>
-      </c>
-      <c r="E337" s="2" t="s">
+      <c r="F338" s="8">
+        <v>30</v>
+      </c>
+      <c r="G338" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H338" s="8"/>
+    </row>
+    <row r="339" spans="3:8">
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339">
+        <v>5200</v>
+      </c>
+      <c r="F339" s="8">
+        <v>31</v>
+      </c>
+      <c r="G339" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G337" s="2"/>
-    </row>
-    <row r="338" spans="7:7">
-      <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="2:7">
-      <c r="B339">
-        <f>B334+1</f>
-        <v>99</v>
-      </c>
-      <c r="C339" t="s">
-        <v>11</v>
-      </c>
-      <c r="D339">
-        <v>5500</v>
-      </c>
-      <c r="E339" t="s">
+      <c r="H339" s="8"/>
+    </row>
+    <row r="340" spans="6:8">
+      <c r="F340" s="8">
+        <v>32</v>
+      </c>
+      <c r="G340" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H340" s="8"/>
+    </row>
+    <row r="341" spans="2:8">
+      <c r="B341">
+        <f>B335+1</f>
+        <v>68</v>
+      </c>
+      <c r="C341" t="s">
         <v>49</v>
       </c>
-      <c r="G339" s="2"/>
-    </row>
-    <row r="340" spans="3:7">
-      <c r="C340" t="s">
-        <v>50</v>
-      </c>
-      <c r="D340">
+      <c r="D341">
         <v>5</v>
       </c>
-      <c r="G340" s="2"/>
-    </row>
-    <row r="341" spans="3:7">
-      <c r="C341" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341">
-        <f>D336+1</f>
-        <v>99</v>
-      </c>
-      <c r="E341" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G341" s="2"/>
+      <c r="F341" s="8">
+        <v>33</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H341" s="8"/>
     </row>
     <row r="342" spans="3:7">
       <c r="C342" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D342">
-        <v>1</v>
-      </c>
-      <c r="E342" s="2" t="s">
+        <f>D336+1</f>
+        <v>68</v>
+      </c>
+      <c r="E342" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="3:7">
+      <c r="C343" t="s">
+        <v>51</v>
+      </c>
+      <c r="D343">
+        <v>1001</v>
+      </c>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="3:7">
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" s="8">
+        <v>31</v>
+      </c>
+      <c r="E344" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G342" s="2"/>
-    </row>
-    <row r="343" spans="7:7">
-      <c r="G343" s="2"/>
-    </row>
-    <row r="344" spans="2:7">
-      <c r="B344">
-        <f>B339+1</f>
-        <v>100</v>
-      </c>
-      <c r="C344" t="s">
-        <v>11</v>
-      </c>
-      <c r="D344">
-        <v>5500</v>
-      </c>
-      <c r="E344" t="s">
-        <v>49</v>
       </c>
       <c r="G344" s="2"/>
     </row>
     <row r="345" spans="3:7">
       <c r="C345" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D345">
+        <v>5200</v>
+      </c>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="7:7">
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347">
+        <f>B341+1</f>
+        <v>69</v>
+      </c>
+      <c r="C347" t="s">
+        <v>49</v>
+      </c>
+      <c r="D347">
         <v>5</v>
       </c>
-      <c r="G345" s="2"/>
-    </row>
-    <row r="346" spans="3:7">
-      <c r="C346" t="s">
-        <v>12</v>
-      </c>
-      <c r="D346">
-        <f>D341+1</f>
-        <v>100</v>
-      </c>
-      <c r="E346" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G346" s="2"/>
-    </row>
-    <row r="347" spans="3:7">
-      <c r="C347" t="s">
-        <v>52</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="7:7">
+    <row r="348" spans="3:7">
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348">
+        <f>D342+1</f>
+        <v>69</v>
+      </c>
+      <c r="E348" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="2:7">
-      <c r="B349">
-        <f>B344+1</f>
-        <v>101</v>
-      </c>
+    <row r="349" spans="3:7">
       <c r="C349" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D349">
-        <v>5500</v>
-      </c>
-      <c r="E349" t="s">
-        <v>49</v>
+        <v>1001</v>
       </c>
       <c r="G349" s="2"/>
     </row>
     <row r="350" spans="3:7">
       <c r="C350" t="s">
-        <v>50</v>
-      </c>
-      <c r="D350">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D350" s="8">
+        <v>31</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="3:7">
       <c r="C351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D351">
-        <f>D346+1</f>
-        <v>101</v>
-      </c>
-      <c r="E351" s="7" t="s">
-        <v>58</v>
+        <v>5200</v>
       </c>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="3:7">
-      <c r="C352" t="s">
-        <v>52</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-      <c r="E352" s="2" t="s">
-        <v>55</v>
-      </c>
+    <row r="352" spans="7:7">
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="7:7">
+    <row r="353" spans="2:7">
+      <c r="B353">
+        <f>B347+1</f>
+        <v>70</v>
+      </c>
+      <c r="C353" t="s">
+        <v>49</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="2:7">
-      <c r="B354">
-        <f>B349+1</f>
-        <v>102</v>
-      </c>
+    <row r="354" spans="3:7">
       <c r="C354" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D354">
-        <v>5500</v>
-      </c>
-      <c r="E354" t="s">
-        <v>49</v>
-      </c>
+        <f>D348+1</f>
+        <v>70</v>
+      </c>
+      <c r="E354" s="7"/>
       <c r="G354" s="2"/>
     </row>
     <row r="355" spans="3:7">
       <c r="C355" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>1001</v>
       </c>
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="3:7">
       <c r="C356" t="s">
-        <v>12</v>
-      </c>
-      <c r="D356">
-        <f>D351+1</f>
-        <v>102</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="D356" s="8">
+        <v>31</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G356" s="2"/>
     </row>
     <row r="357" spans="3:7">
       <c r="C357" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D357">
-        <v>1</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>55</v>
+        <v>5200</v>
       </c>
       <c r="G357" s="2"/>
     </row>
@@ -5066,58 +5229,55 @@
     </row>
     <row r="359" spans="2:7">
       <c r="B359">
-        <v>103</v>
+        <f>B353+1</f>
+        <v>71</v>
       </c>
       <c r="C359" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D359">
-        <v>103</v>
-      </c>
-      <c r="E359" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G359" s="2"/>
     </row>
     <row r="360" spans="3:7">
       <c r="C360" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D360">
-        <v>1</v>
-      </c>
-      <c r="E360" t="s">
-        <v>62</v>
-      </c>
+        <f>D354+1</f>
+        <v>71</v>
+      </c>
+      <c r="E360" s="7"/>
       <c r="G360" s="2"/>
     </row>
     <row r="361" spans="3:7">
       <c r="C361" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D361">
-        <v>30</v>
-      </c>
-      <c r="E361" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="3:7">
       <c r="C362" t="s">
-        <v>11</v>
-      </c>
-      <c r="D362">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D362" s="8">
+        <v>31</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G362" s="2"/>
     </row>
     <row r="363" spans="3:7">
       <c r="C363" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D363">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G363" s="2"/>
     </row>
@@ -5127,59 +5287,54 @@
     <row r="365" spans="2:7">
       <c r="B365">
         <f>B359+1</f>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C365" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D365">
-        <f>D359+1</f>
-        <v>104</v>
-      </c>
-      <c r="E365" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G365" s="2"/>
     </row>
     <row r="366" spans="3:7">
       <c r="C366" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D366">
-        <v>1</v>
-      </c>
-      <c r="E366" t="s">
-        <v>62</v>
-      </c>
+        <f>D360+1</f>
+        <v>72</v>
+      </c>
+      <c r="E366" s="7"/>
       <c r="G366" s="2"/>
     </row>
     <row r="367" spans="3:7">
       <c r="C367" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D367">
-        <v>30</v>
-      </c>
-      <c r="E367" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G367" s="2"/>
     </row>
     <row r="368" spans="3:7">
       <c r="C368" t="s">
-        <v>11</v>
-      </c>
-      <c r="D368">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D368" s="8">
+        <v>31</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G368" s="2"/>
     </row>
     <row r="369" spans="3:7">
       <c r="C369" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D369">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G369" s="2"/>
     </row>
@@ -5189,59 +5344,54 @@
     <row r="371" spans="2:7">
       <c r="B371">
         <f>B365+1</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C371" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D371">
-        <f>D365+1</f>
-        <v>105</v>
-      </c>
-      <c r="E371" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G371" s="2"/>
     </row>
     <row r="372" spans="3:7">
       <c r="C372" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D372">
-        <v>1</v>
-      </c>
-      <c r="E372" t="s">
-        <v>62</v>
-      </c>
+        <f>D366+1</f>
+        <v>73</v>
+      </c>
+      <c r="E372" s="7"/>
       <c r="G372" s="2"/>
     </row>
     <row r="373" spans="3:7">
       <c r="C373" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D373">
-        <v>30</v>
-      </c>
-      <c r="E373" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G373" s="2"/>
     </row>
     <row r="374" spans="3:7">
       <c r="C374" t="s">
-        <v>11</v>
-      </c>
-      <c r="D374">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D374" s="8">
+        <v>31</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G374" s="2"/>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D375">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G375" s="2"/>
     </row>
@@ -5251,59 +5401,54 @@
     <row r="377" spans="2:7">
       <c r="B377">
         <f>B371+1</f>
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C377" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D377">
-        <f>D371+1</f>
-        <v>106</v>
-      </c>
-      <c r="E377" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G377" s="2"/>
     </row>
     <row r="378" spans="3:7">
       <c r="C378" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D378">
-        <v>1</v>
-      </c>
-      <c r="E378" t="s">
-        <v>62</v>
-      </c>
+        <f>D372+1</f>
+        <v>74</v>
+      </c>
+      <c r="E378" s="7"/>
       <c r="G378" s="2"/>
     </row>
     <row r="379" spans="3:7">
       <c r="C379" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D379">
-        <v>30</v>
-      </c>
-      <c r="E379" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G379" s="2"/>
     </row>
     <row r="380" spans="3:7">
       <c r="C380" t="s">
-        <v>11</v>
-      </c>
-      <c r="D380">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D380" s="8">
+        <v>31</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G380" s="2"/>
     </row>
     <row r="381" spans="3:7">
       <c r="C381" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D381">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G381" s="2"/>
     </row>
@@ -5313,59 +5458,54 @@
     <row r="383" spans="2:7">
       <c r="B383">
         <f>B377+1</f>
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C383" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D383">
-        <f>D377+1</f>
-        <v>107</v>
-      </c>
-      <c r="E383" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G383" s="2"/>
     </row>
     <row r="384" spans="3:7">
       <c r="C384" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D384">
-        <v>1</v>
-      </c>
-      <c r="E384" t="s">
-        <v>62</v>
-      </c>
+        <f>D378+1</f>
+        <v>75</v>
+      </c>
+      <c r="E384" s="7"/>
       <c r="G384" s="2"/>
     </row>
     <row r="385" spans="3:7">
       <c r="C385" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D385">
-        <v>30</v>
-      </c>
-      <c r="E385" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G385" s="2"/>
     </row>
     <row r="386" spans="3:7">
       <c r="C386" t="s">
-        <v>11</v>
-      </c>
-      <c r="D386">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D386" s="8">
+        <v>31</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G386" s="2"/>
     </row>
     <row r="387" spans="3:7">
       <c r="C387" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D387">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G387" s="2"/>
     </row>
@@ -5375,59 +5515,56 @@
     <row r="389" spans="2:7">
       <c r="B389">
         <f>B383+1</f>
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C389" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D389">
-        <f>D383+1</f>
-        <v>108</v>
-      </c>
-      <c r="E389" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G389" s="2"/>
     </row>
     <row r="390" spans="3:7">
       <c r="C390" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D390">
-        <v>1</v>
-      </c>
-      <c r="E390" t="s">
-        <v>62</v>
+        <f>D384+1</f>
+        <v>76</v>
+      </c>
+      <c r="E390" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="G390" s="2"/>
     </row>
     <row r="391" spans="3:7">
       <c r="C391" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D391">
-        <v>30</v>
-      </c>
-      <c r="E391" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G391" s="2"/>
     </row>
     <row r="392" spans="3:7">
       <c r="C392" t="s">
-        <v>11</v>
-      </c>
-      <c r="D392">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D392" s="8">
+        <v>31</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G392" s="2"/>
     </row>
     <row r="393" spans="3:7">
       <c r="C393" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D393">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G393" s="2"/>
     </row>
@@ -5437,59 +5574,53 @@
     <row r="395" spans="2:7">
       <c r="B395">
         <f>B389+1</f>
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C395" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D395">
-        <f>D389+1</f>
-        <v>109</v>
-      </c>
-      <c r="E395" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G395" s="2"/>
     </row>
     <row r="396" spans="3:7">
       <c r="C396" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D396">
-        <v>1</v>
-      </c>
-      <c r="E396" t="s">
-        <v>62</v>
+        <f>D390+1</f>
+        <v>77</v>
       </c>
       <c r="G396" s="2"/>
     </row>
     <row r="397" spans="3:7">
       <c r="C397" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D397">
-        <v>30</v>
-      </c>
-      <c r="E397" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G397" s="2"/>
     </row>
     <row r="398" spans="3:7">
       <c r="C398" t="s">
-        <v>11</v>
-      </c>
-      <c r="D398">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D398" s="8">
+        <v>33</v>
+      </c>
+      <c r="E398" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="G398" s="2"/>
     </row>
     <row r="399" spans="3:7">
       <c r="C399" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D399">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G399" s="2"/>
     </row>
@@ -5499,59 +5630,53 @@
     <row r="401" spans="2:7">
       <c r="B401">
         <f>B395+1</f>
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C401" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D401">
-        <f>D395+1</f>
-        <v>110</v>
-      </c>
-      <c r="E401" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G401" s="2"/>
     </row>
     <row r="402" spans="3:7">
       <c r="C402" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D402">
-        <v>1</v>
-      </c>
-      <c r="E402" t="s">
-        <v>62</v>
+        <f>D396+1</f>
+        <v>78</v>
       </c>
       <c r="G402" s="2"/>
     </row>
     <row r="403" spans="3:7">
       <c r="C403" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D403">
-        <v>30</v>
-      </c>
-      <c r="E403" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G403" s="2"/>
     </row>
     <row r="404" spans="3:7">
       <c r="C404" t="s">
-        <v>11</v>
-      </c>
-      <c r="D404">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D404" s="8">
+        <v>48</v>
+      </c>
+      <c r="E404" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="G404" s="2"/>
     </row>
     <row r="405" spans="3:7">
       <c r="C405" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D405">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G405" s="2"/>
     </row>
@@ -5561,59 +5686,53 @@
     <row r="407" spans="2:7">
       <c r="B407">
         <f>B401+1</f>
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C407" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D407">
-        <f>D401+1</f>
-        <v>111</v>
-      </c>
-      <c r="E407" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G407" s="2"/>
     </row>
     <row r="408" spans="3:7">
       <c r="C408" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D408">
-        <v>1</v>
-      </c>
-      <c r="E408" t="s">
-        <v>62</v>
+        <f>D402+1</f>
+        <v>79</v>
       </c>
       <c r="G408" s="2"/>
     </row>
     <row r="409" spans="3:7">
       <c r="C409" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D409">
-        <v>30</v>
-      </c>
-      <c r="E409" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G409" s="2"/>
     </row>
     <row r="410" spans="3:7">
       <c r="C410" t="s">
-        <v>11</v>
-      </c>
-      <c r="D410">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D410" s="8">
+        <v>48</v>
+      </c>
+      <c r="E410" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="G410" s="2"/>
     </row>
     <row r="411" spans="3:7">
       <c r="C411" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D411">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G411" s="2"/>
     </row>
@@ -5623,59 +5742,53 @@
     <row r="413" spans="2:7">
       <c r="B413">
         <f>B407+1</f>
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C413" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D413">
-        <f>D407+1</f>
-        <v>112</v>
-      </c>
-      <c r="E413" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G413" s="2"/>
     </row>
     <row r="414" spans="3:7">
       <c r="C414" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D414">
-        <v>1</v>
-      </c>
-      <c r="E414" t="s">
-        <v>62</v>
+        <f>D408+1</f>
+        <v>80</v>
       </c>
       <c r="G414" s="2"/>
     </row>
     <row r="415" spans="3:7">
       <c r="C415" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D415">
-        <v>30</v>
-      </c>
-      <c r="E415" t="s">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="G415" s="2"/>
     </row>
     <row r="416" spans="3:7">
       <c r="C416" t="s">
-        <v>11</v>
-      </c>
-      <c r="D416">
-        <v>6600</v>
+        <v>10</v>
+      </c>
+      <c r="D416" s="8">
+        <v>48</v>
+      </c>
+      <c r="E416" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="G416" s="2"/>
     </row>
     <row r="417" spans="3:7">
       <c r="C417" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D417">
-        <v>6</v>
+        <v>5200</v>
       </c>
       <c r="G417" s="2"/>
     </row>
@@ -5685,401 +5798,373 @@
     <row r="419" spans="2:7">
       <c r="B419">
         <f>B413+1</f>
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C419" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D419">
-        <f>D413+1</f>
-        <v>113</v>
-      </c>
-      <c r="E419" t="s">
-        <v>60</v>
+        <v>5501</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G419" s="2"/>
     </row>
     <row r="420" spans="3:7">
       <c r="C420" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D420">
-        <v>1</v>
-      </c>
-      <c r="E420" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G420" s="2"/>
     </row>
     <row r="421" spans="3:7">
       <c r="C421" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D421">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E421" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G421" s="2"/>
     </row>
     <row r="422" spans="3:7">
       <c r="C422" t="s">
-        <v>11</v>
-      </c>
-      <c r="D422" s="2">
-        <v>6601</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D422" s="8">
+        <v>2</v>
+      </c>
+      <c r="E422" s="10"/>
       <c r="G422" s="2"/>
     </row>
-    <row r="423" spans="3:7">
-      <c r="C423" t="s">
-        <v>50</v>
-      </c>
-      <c r="D423">
-        <v>6</v>
-      </c>
+    <row r="423" spans="7:7">
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="7:7">
+    <row r="424" spans="2:7">
+      <c r="B424">
+        <f>B419+1</f>
+        <v>82</v>
+      </c>
+      <c r="C424" t="s">
+        <v>11</v>
+      </c>
+      <c r="D424">
+        <v>5501</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G424" s="2"/>
     </row>
-    <row r="425" customFormat="1" spans="2:7">
-      <c r="B425">
-        <f>B419+1</f>
-        <v>114</v>
-      </c>
+    <row r="425" spans="3:7">
       <c r="C425" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D425">
-        <f>D419+1</f>
-        <v>114</v>
-      </c>
-      <c r="E425" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G425" s="2"/>
     </row>
-    <row r="426" customFormat="1" spans="3:7">
+    <row r="426" spans="3:7">
       <c r="C426" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D426">
-        <v>1</v>
-      </c>
-      <c r="E426" t="s">
-        <v>62</v>
+        <f>D421+1</f>
+        <v>82</v>
       </c>
       <c r="G426" s="2"/>
     </row>
-    <row r="427" customFormat="1" spans="3:7">
+    <row r="427" spans="3:7">
       <c r="C427" t="s">
         <v>63</v>
       </c>
-      <c r="D427">
-        <v>30</v>
-      </c>
-      <c r="E427" t="s">
-        <v>64</v>
-      </c>
+      <c r="D427" s="8">
+        <v>2</v>
+      </c>
+      <c r="E427" s="10"/>
       <c r="G427" s="2"/>
     </row>
-    <row r="428" customFormat="1" spans="3:7">
-      <c r="C428" t="s">
-        <v>11</v>
-      </c>
-      <c r="D428" s="2">
-        <v>6601</v>
-      </c>
+    <row r="428" spans="7:7">
       <c r="G428" s="2"/>
     </row>
-    <row r="429" customFormat="1" spans="3:7">
+    <row r="429" spans="2:7">
+      <c r="B429">
+        <f>B424+1</f>
+        <v>83</v>
+      </c>
       <c r="C429" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D429">
-        <v>6</v>
+        <v>5501</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G429" s="2"/>
     </row>
-    <row r="430" spans="7:7">
+    <row r="430" spans="3:7">
+      <c r="C430" t="s">
+        <v>49</v>
+      </c>
+      <c r="D430">
+        <v>5</v>
+      </c>
       <c r="G430" s="2"/>
     </row>
-    <row r="431" customFormat="1" spans="2:7">
-      <c r="B431">
-        <f>B425+1</f>
-        <v>115</v>
-      </c>
+    <row r="431" spans="3:7">
       <c r="C431" t="s">
         <v>12</v>
       </c>
       <c r="D431">
-        <f>D425+1</f>
-        <v>115</v>
-      </c>
-      <c r="E431" t="s">
-        <v>60</v>
+        <f>D426+1</f>
+        <v>83</v>
       </c>
       <c r="G431" s="2"/>
     </row>
-    <row r="432" customFormat="1" spans="3:7">
+    <row r="432" spans="3:7">
       <c r="C432" t="s">
+        <v>63</v>
+      </c>
+      <c r="D432" s="8">
+        <v>2</v>
+      </c>
+      <c r="E432" s="10"/>
+      <c r="G432" s="2"/>
+    </row>
+    <row r="433" spans="7:7">
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="2:7">
+      <c r="B434">
+        <f>B429+1</f>
+        <v>84</v>
+      </c>
+      <c r="C434" t="s">
+        <v>11</v>
+      </c>
+      <c r="D434">
+        <v>5501</v>
+      </c>
+      <c r="E434" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D432">
-        <v>1</v>
-      </c>
-      <c r="E432" t="s">
-        <v>62</v>
-      </c>
-      <c r="G432" s="2"/>
-    </row>
-    <row r="433" customFormat="1" spans="3:7">
-      <c r="C433" t="s">
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="3:7">
+      <c r="C435" t="s">
+        <v>49</v>
+      </c>
+      <c r="D435">
+        <v>5</v>
+      </c>
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="3:7">
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436">
+        <f>D431+1</f>
+        <v>84</v>
+      </c>
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="3:7">
+      <c r="C437" t="s">
         <v>63</v>
       </c>
-      <c r="D433">
-        <v>30</v>
-      </c>
-      <c r="E433" t="s">
-        <v>64</v>
-      </c>
-      <c r="G433" s="2"/>
-    </row>
-    <row r="434" customFormat="1" spans="3:7">
-      <c r="C434" t="s">
-        <v>11</v>
-      </c>
-      <c r="D434" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G434" s="2"/>
-    </row>
-    <row r="435" customFormat="1" spans="3:7">
-      <c r="C435" t="s">
-        <v>50</v>
-      </c>
-      <c r="D435">
-        <v>6</v>
-      </c>
-      <c r="G435" s="2"/>
-    </row>
-    <row r="436" spans="7:7">
-      <c r="G436" s="2"/>
-    </row>
-    <row r="437" customFormat="1" spans="2:7">
-      <c r="B437">
-        <f>B431+1</f>
-        <v>116</v>
-      </c>
-      <c r="C437" t="s">
-        <v>12</v>
-      </c>
-      <c r="D437">
-        <f>D431+1</f>
-        <v>116</v>
-      </c>
-      <c r="E437" t="s">
-        <v>60</v>
-      </c>
+      <c r="D437" s="8">
+        <v>2</v>
+      </c>
+      <c r="E437" s="10"/>
       <c r="G437" s="2"/>
     </row>
-    <row r="438" customFormat="1" spans="3:7">
-      <c r="C438" t="s">
+    <row r="438" spans="7:7">
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="2:7">
+      <c r="B439">
+        <f>B434+1</f>
+        <v>85</v>
+      </c>
+      <c r="C439" t="s">
+        <v>11</v>
+      </c>
+      <c r="D439">
+        <v>5501</v>
+      </c>
+      <c r="E439" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D438">
-        <v>1</v>
-      </c>
-      <c r="E438" t="s">
-        <v>62</v>
-      </c>
-      <c r="G438" s="2"/>
-    </row>
-    <row r="439" customFormat="1" spans="3:7">
-      <c r="C439" t="s">
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="3:7">
+      <c r="C440" t="s">
+        <v>49</v>
+      </c>
+      <c r="D440">
+        <v>5</v>
+      </c>
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="3:7">
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441">
+        <f>D436+1</f>
+        <v>85</v>
+      </c>
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="3:7">
+      <c r="C442" t="s">
         <v>63</v>
       </c>
-      <c r="D439">
-        <v>30</v>
-      </c>
-      <c r="E439" t="s">
-        <v>64</v>
-      </c>
-      <c r="G439" s="2"/>
-    </row>
-    <row r="440" customFormat="1" spans="3:7">
-      <c r="C440" t="s">
-        <v>11</v>
-      </c>
-      <c r="D440" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G440" s="2"/>
-    </row>
-    <row r="441" customFormat="1" spans="3:7">
-      <c r="C441" t="s">
-        <v>50</v>
-      </c>
-      <c r="D441">
-        <v>6</v>
-      </c>
-      <c r="G441" s="2"/>
-    </row>
-    <row r="442" spans="7:7">
+      <c r="D442" s="8">
+        <v>2</v>
+      </c>
+      <c r="E442" s="10"/>
       <c r="G442" s="2"/>
     </row>
-    <row r="443" customFormat="1" spans="2:7">
-      <c r="B443">
-        <f>B437+1</f>
-        <v>117</v>
-      </c>
-      <c r="C443" t="s">
-        <v>12</v>
-      </c>
-      <c r="D443">
-        <f>D437+1</f>
-        <v>117</v>
-      </c>
-      <c r="E443" t="s">
-        <v>60</v>
-      </c>
+    <row r="443" spans="7:7">
       <c r="G443" s="2"/>
     </row>
-    <row r="444" customFormat="1" spans="3:7">
+    <row r="444" spans="2:7">
+      <c r="B444">
+        <f>B439+1</f>
+        <v>86</v>
+      </c>
       <c r="C444" t="s">
+        <v>11</v>
+      </c>
+      <c r="D444">
+        <v>5501</v>
+      </c>
+      <c r="E444" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D444">
-        <v>1</v>
-      </c>
-      <c r="E444" t="s">
-        <v>62</v>
-      </c>
       <c r="G444" s="2"/>
     </row>
-    <row r="445" customFormat="1" spans="3:7">
+    <row r="445" spans="3:7">
       <c r="C445" t="s">
+        <v>49</v>
+      </c>
+      <c r="D445">
+        <v>5</v>
+      </c>
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="3:7">
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446">
+        <f>D441+1</f>
+        <v>86</v>
+      </c>
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="3:7">
+      <c r="C447" t="s">
         <v>63</v>
       </c>
-      <c r="D445">
-        <v>30</v>
-      </c>
-      <c r="E445" t="s">
-        <v>64</v>
-      </c>
-      <c r="G445" s="2"/>
-    </row>
-    <row r="446" customFormat="1" spans="3:7">
-      <c r="C446" t="s">
-        <v>11</v>
-      </c>
-      <c r="D446" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G446" s="2"/>
-    </row>
-    <row r="447" customFormat="1" spans="3:7">
-      <c r="C447" t="s">
-        <v>50</v>
-      </c>
-      <c r="D447">
-        <v>6</v>
-      </c>
+      <c r="D447" s="8">
+        <v>2</v>
+      </c>
+      <c r="E447" s="10"/>
       <c r="G447" s="2"/>
     </row>
     <row r="448" spans="7:7">
       <c r="G448" s="2"/>
     </row>
-    <row r="449" customFormat="1" spans="2:7">
+    <row r="449" spans="2:7">
       <c r="B449">
-        <f>B443+1</f>
-        <v>118</v>
+        <f>B444+1</f>
+        <v>87</v>
       </c>
       <c r="C449" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D449">
-        <f>D443+1</f>
-        <v>118</v>
-      </c>
-      <c r="E449" t="s">
-        <v>60</v>
+        <v>5501</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G449" s="2"/>
     </row>
-    <row r="450" customFormat="1" spans="3:7">
+    <row r="450" spans="3:7">
       <c r="C450" t="s">
+        <v>49</v>
+      </c>
+      <c r="D450">
+        <v>5</v>
+      </c>
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="3:7">
+      <c r="C451" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451">
+        <f>D446+1</f>
+        <v>87</v>
+      </c>
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="3:7">
+      <c r="C452" t="s">
+        <v>63</v>
+      </c>
+      <c r="D452" s="8">
+        <v>2</v>
+      </c>
+      <c r="E452" s="10"/>
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="7:7">
+      <c r="G453" s="2"/>
+    </row>
+    <row r="454" spans="2:7">
+      <c r="B454">
+        <f>B449+1</f>
+        <v>88</v>
+      </c>
+      <c r="C454" t="s">
+        <v>11</v>
+      </c>
+      <c r="D454">
+        <v>5501</v>
+      </c>
+      <c r="E454" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D450">
-        <v>1</v>
-      </c>
-      <c r="E450" t="s">
-        <v>62</v>
-      </c>
-      <c r="G450" s="2"/>
-    </row>
-    <row r="451" customFormat="1" spans="3:7">
-      <c r="C451" t="s">
-        <v>63</v>
-      </c>
-      <c r="D451">
-        <v>30</v>
-      </c>
-      <c r="E451" t="s">
-        <v>64</v>
-      </c>
-      <c r="G451" s="2"/>
-    </row>
-    <row r="452" customFormat="1" spans="3:7">
-      <c r="C452" t="s">
-        <v>11</v>
-      </c>
-      <c r="D452" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G452" s="2"/>
-    </row>
-    <row r="453" customFormat="1" spans="3:7">
-      <c r="C453" t="s">
-        <v>50</v>
-      </c>
-      <c r="D453">
-        <v>6</v>
-      </c>
-      <c r="G453" s="2"/>
-    </row>
-    <row r="454" spans="7:7">
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="2:7">
-      <c r="B455">
-        <f>B449+1</f>
-        <v>119</v>
-      </c>
+    <row r="455" spans="3:7">
       <c r="C455" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D455">
-        <f>D449+1</f>
-        <v>119</v>
-      </c>
-      <c r="E455" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G455" s="2"/>
     </row>
     <row r="456" spans="3:7">
       <c r="C456" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D456">
-        <v>1</v>
-      </c>
-      <c r="E456" t="s">
-        <v>62</v>
+        <f>D451+1</f>
+        <v>88</v>
       </c>
       <c r="G456" s="2"/>
     </row>
@@ -6087,401 +6172,367 @@
       <c r="C457" t="s">
         <v>63</v>
       </c>
-      <c r="D457">
-        <v>30</v>
-      </c>
-      <c r="E457" t="s">
-        <v>64</v>
-      </c>
+      <c r="D457" s="8">
+        <v>2</v>
+      </c>
+      <c r="E457" s="10"/>
       <c r="G457" s="2"/>
     </row>
-    <row r="458" spans="3:7">
-      <c r="C458" t="s">
-        <v>11</v>
-      </c>
-      <c r="D458" s="2">
-        <v>6601</v>
-      </c>
+    <row r="458" spans="7:7">
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="3:7">
+    <row r="459" spans="2:7">
+      <c r="B459">
+        <f>B454+1</f>
+        <v>89</v>
+      </c>
       <c r="C459" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D459">
-        <v>6</v>
+        <v>5501</v>
+      </c>
+      <c r="E459" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G459" s="2"/>
     </row>
-    <row r="460" spans="7:7">
+    <row r="460" spans="3:7">
+      <c r="C460" t="s">
+        <v>49</v>
+      </c>
+      <c r="D460">
+        <v>5</v>
+      </c>
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="2:7">
-      <c r="B461">
-        <f>B455+1</f>
-        <v>120</v>
-      </c>
+    <row r="461" spans="3:7">
       <c r="C461" t="s">
         <v>12</v>
       </c>
       <c r="D461">
-        <f>D455+1</f>
-        <v>120</v>
-      </c>
-      <c r="E461" t="s">
-        <v>60</v>
+        <f>D456+1</f>
+        <v>89</v>
       </c>
       <c r="G461" s="2"/>
     </row>
     <row r="462" spans="3:7">
       <c r="C462" t="s">
+        <v>63</v>
+      </c>
+      <c r="D462" s="8">
+        <v>2</v>
+      </c>
+      <c r="E462" s="10"/>
+      <c r="G462" s="2"/>
+    </row>
+    <row r="463" spans="7:7">
+      <c r="G463" s="2"/>
+    </row>
+    <row r="464" spans="2:7">
+      <c r="B464">
+        <f>B459+1</f>
+        <v>90</v>
+      </c>
+      <c r="C464" t="s">
+        <v>11</v>
+      </c>
+      <c r="D464">
+        <v>5501</v>
+      </c>
+      <c r="E464" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
-      </c>
-      <c r="E462" t="s">
-        <v>62</v>
-      </c>
-      <c r="G462" s="2"/>
-    </row>
-    <row r="463" spans="3:7">
-      <c r="C463" t="s">
-        <v>63</v>
-      </c>
-      <c r="D463">
-        <v>30</v>
-      </c>
-      <c r="E463" t="s">
-        <v>64</v>
-      </c>
-      <c r="G463" s="2"/>
-    </row>
-    <row r="464" spans="3:7">
-      <c r="C464" t="s">
-        <v>11</v>
-      </c>
-      <c r="D464" s="2">
-        <v>6601</v>
       </c>
       <c r="G464" s="2"/>
     </row>
     <row r="465" spans="3:7">
       <c r="C465" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D465">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G465" s="2"/>
     </row>
-    <row r="466" spans="7:7">
+    <row r="466" spans="3:7">
+      <c r="C466" t="s">
+        <v>12</v>
+      </c>
+      <c r="D466">
+        <f>D461+1</f>
+        <v>90</v>
+      </c>
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="2:7">
-      <c r="B467">
-        <f>B461+1</f>
-        <v>121</v>
-      </c>
+    <row r="467" spans="3:7">
       <c r="C467" t="s">
-        <v>12</v>
-      </c>
-      <c r="D467">
-        <f>D461+1</f>
-        <v>121</v>
-      </c>
-      <c r="E467" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D467" s="8">
+        <v>2</v>
+      </c>
+      <c r="E467" s="10"/>
       <c r="G467" s="2"/>
     </row>
-    <row r="468" spans="3:7">
-      <c r="C468" t="s">
+    <row r="468" spans="7:7">
+      <c r="G468" s="2"/>
+    </row>
+    <row r="469" spans="2:7">
+      <c r="B469">
+        <f>B464+1</f>
+        <v>91</v>
+      </c>
+      <c r="C469" t="s">
+        <v>11</v>
+      </c>
+      <c r="D469">
+        <v>5501</v>
+      </c>
+      <c r="E469" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D468">
-        <v>1</v>
-      </c>
-      <c r="E468" t="s">
-        <v>62</v>
-      </c>
-      <c r="G468" s="2"/>
-    </row>
-    <row r="469" spans="3:7">
-      <c r="C469" t="s">
-        <v>63</v>
-      </c>
-      <c r="D469">
-        <v>30</v>
-      </c>
-      <c r="E469" t="s">
-        <v>64</v>
       </c>
       <c r="G469" s="2"/>
     </row>
     <row r="470" spans="3:7">
       <c r="C470" t="s">
-        <v>11</v>
-      </c>
-      <c r="D470" s="2">
-        <v>6601</v>
+        <v>49</v>
+      </c>
+      <c r="D470">
+        <v>5</v>
       </c>
       <c r="G470" s="2"/>
     </row>
     <row r="471" spans="3:7">
       <c r="C471" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D471">
-        <v>6</v>
+        <f>D466+1</f>
+        <v>91</v>
       </c>
       <c r="G471" s="2"/>
     </row>
-    <row r="472" spans="7:7">
+    <row r="472" spans="3:7">
+      <c r="C472" t="s">
+        <v>63</v>
+      </c>
+      <c r="D472" s="8">
+        <v>2</v>
+      </c>
+      <c r="E472" s="10"/>
       <c r="G472" s="2"/>
     </row>
-    <row r="473" spans="2:7">
-      <c r="B473">
-        <f>B467+1</f>
-        <v>122</v>
-      </c>
-      <c r="C473" t="s">
-        <v>12</v>
-      </c>
-      <c r="D473">
-        <f>D467+1</f>
-        <v>122</v>
-      </c>
-      <c r="E473" t="s">
-        <v>60</v>
-      </c>
+    <row r="473" spans="7:7">
       <c r="G473" s="2"/>
     </row>
-    <row r="474" spans="3:7">
+    <row r="474" spans="2:7">
+      <c r="B474">
+        <v>92</v>
+      </c>
       <c r="C474" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D474">
-        <v>1</v>
-      </c>
-      <c r="E474" t="s">
-        <v>62</v>
+        <v>5502</v>
       </c>
       <c r="G474" s="2"/>
     </row>
     <row r="475" spans="3:7">
       <c r="C475" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D475">
-        <v>30</v>
-      </c>
-      <c r="E475" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G475" s="2"/>
     </row>
     <row r="476" spans="3:7">
       <c r="C476" t="s">
-        <v>11</v>
-      </c>
-      <c r="D476" s="2">
-        <v>6601</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D476">
+        <v>92</v>
+      </c>
+      <c r="E476" s="7"/>
       <c r="G476" s="2"/>
     </row>
     <row r="477" spans="3:7">
       <c r="C477" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D477">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E477" s="2"/>
       <c r="G477" s="2"/>
     </row>
-    <row r="478" spans="7:7">
+    <row r="478" spans="3:7">
+      <c r="C478" t="s">
+        <v>64</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="2:7">
-      <c r="B479">
-        <f>B473+1</f>
-        <v>123</v>
-      </c>
-      <c r="C479" t="s">
-        <v>12</v>
-      </c>
-      <c r="D479">
-        <f>D473+1</f>
-        <v>123</v>
-      </c>
-      <c r="E479" t="s">
-        <v>60</v>
-      </c>
+    <row r="479" spans="7:7">
       <c r="G479" s="2"/>
     </row>
-    <row r="480" spans="3:7">
+    <row r="480" spans="2:7">
+      <c r="B480">
+        <f>B474+1</f>
+        <v>93</v>
+      </c>
       <c r="C480" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D480">
-        <v>1</v>
-      </c>
-      <c r="E480" t="s">
-        <v>62</v>
+        <v>5502</v>
       </c>
       <c r="G480" s="2"/>
     </row>
     <row r="481" spans="3:7">
       <c r="C481" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D481">
-        <v>30</v>
-      </c>
-      <c r="E481" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G481" s="2"/>
     </row>
     <row r="482" spans="3:7">
       <c r="C482" t="s">
-        <v>11</v>
-      </c>
-      <c r="D482" s="2">
-        <v>6601</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D482">
+        <f>D476+1</f>
+        <v>93</v>
+      </c>
+      <c r="E482" s="7"/>
       <c r="G482" s="2"/>
     </row>
     <row r="483" spans="3:7">
       <c r="C483" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D483">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E483" s="2"/>
       <c r="G483" s="2"/>
     </row>
-    <row r="484" spans="7:7">
+    <row r="484" spans="3:7">
+      <c r="C484" t="s">
+        <v>64</v>
+      </c>
+      <c r="D484">
+        <v>2</v>
+      </c>
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="2:7">
-      <c r="B485">
-        <f>B479+1</f>
-        <v>124</v>
-      </c>
-      <c r="C485" t="s">
-        <v>12</v>
-      </c>
-      <c r="D485">
-        <f>D479+1</f>
-        <v>124</v>
-      </c>
-      <c r="E485" t="s">
-        <v>60</v>
-      </c>
+    <row r="485" spans="7:7">
       <c r="G485" s="2"/>
     </row>
-    <row r="486" spans="3:7">
+    <row r="486" spans="2:7">
+      <c r="B486">
+        <f>B480+1</f>
+        <v>94</v>
+      </c>
       <c r="C486" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D486">
-        <v>1</v>
-      </c>
-      <c r="E486" t="s">
-        <v>62</v>
+        <v>5502</v>
       </c>
       <c r="G486" s="2"/>
     </row>
     <row r="487" spans="3:7">
       <c r="C487" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D487">
-        <v>30</v>
-      </c>
-      <c r="E487" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G487" s="2"/>
     </row>
     <row r="488" spans="3:7">
       <c r="C488" t="s">
-        <v>11</v>
-      </c>
-      <c r="D488" s="2">
-        <v>6601</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D488">
+        <f>D482+1</f>
+        <v>94</v>
+      </c>
+      <c r="E488" s="7"/>
       <c r="G488" s="2"/>
     </row>
     <row r="489" spans="3:7">
       <c r="C489" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D489">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E489" s="2"/>
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="7:7">
+    <row r="490" spans="3:7">
+      <c r="C490" t="s">
+        <v>64</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="2:7">
-      <c r="B491">
-        <f>B485+1</f>
-        <v>125</v>
-      </c>
-      <c r="C491" t="s">
-        <v>12</v>
-      </c>
-      <c r="D491">
-        <f>D485+1</f>
-        <v>125</v>
-      </c>
-      <c r="E491" t="s">
-        <v>60</v>
-      </c>
+    <row r="491" spans="7:7">
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="3:7">
+    <row r="492" spans="2:7">
+      <c r="B492">
+        <v>97</v>
+      </c>
       <c r="C492" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>5500</v>
       </c>
       <c r="E492" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G492" s="2"/>
     </row>
     <row r="493" spans="3:7">
       <c r="C493" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D493">
-        <v>30</v>
-      </c>
-      <c r="E493" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G493" s="2"/>
     </row>
     <row r="494" spans="3:7">
       <c r="C494" t="s">
-        <v>11</v>
-      </c>
-      <c r="D494" s="2">
-        <v>6601</v>
+        <v>12</v>
+      </c>
+      <c r="D494">
+        <v>97</v>
+      </c>
+      <c r="E494" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G494" s="2"/>
     </row>
     <row r="495" spans="3:7">
       <c r="C495" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D495">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G495" s="2"/>
     </row>
@@ -6490,92 +6541,90 @@
     </row>
     <row r="497" spans="2:7">
       <c r="B497">
-        <f>B491+1</f>
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C497" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D497">
-        <f>D491+1</f>
-        <v>126</v>
+        <v>5500</v>
       </c>
       <c r="E497" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G497" s="2"/>
     </row>
     <row r="498" spans="3:7">
       <c r="C498" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D498">
-        <v>1</v>
-      </c>
-      <c r="E498" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G498" s="2"/>
     </row>
     <row r="499" spans="3:7">
       <c r="C499" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D499">
-        <v>30</v>
-      </c>
-      <c r="E499" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="E499" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="G499" s="2"/>
     </row>
     <row r="500" spans="3:7">
       <c r="C500" t="s">
-        <v>11</v>
-      </c>
-      <c r="D500" s="2">
-        <v>6601</v>
+        <v>63</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G500" s="2"/>
     </row>
-    <row r="501" spans="3:7">
-      <c r="C501" t="s">
-        <v>50</v>
-      </c>
-      <c r="D501">
-        <v>6</v>
-      </c>
+    <row r="501" spans="7:7">
       <c r="G501" s="2"/>
     </row>
-    <row r="502" spans="7:7">
+    <row r="502" spans="2:7">
+      <c r="B502">
+        <f>B497+1</f>
+        <v>99</v>
+      </c>
+      <c r="C502" t="s">
+        <v>11</v>
+      </c>
+      <c r="D502">
+        <v>5500</v>
+      </c>
+      <c r="E502" t="s">
+        <v>65</v>
+      </c>
       <c r="G502" s="2"/>
     </row>
-    <row r="503" spans="2:7">
-      <c r="B503">
-        <f>B497+1</f>
-        <v>127</v>
-      </c>
+    <row r="503" spans="3:7">
       <c r="C503" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D503">
-        <f>D497+1</f>
-        <v>127</v>
-      </c>
-      <c r="E503" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G503" s="2"/>
     </row>
     <row r="504" spans="3:7">
       <c r="C504" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D504">
-        <v>1</v>
-      </c>
-      <c r="E504" t="s">
-        <v>62</v>
+        <f>D499+1</f>
+        <v>99</v>
+      </c>
+      <c r="E504" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="G504" s="2"/>
     </row>
@@ -6584,524 +6633,575 @@
         <v>63</v>
       </c>
       <c r="D505">
-        <v>30</v>
-      </c>
-      <c r="E505" t="s">
-        <v>64</v>
+        <v>-1</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G505" s="2"/>
     </row>
-    <row r="506" spans="3:7">
-      <c r="C506" t="s">
-        <v>11</v>
-      </c>
-      <c r="D506" s="2">
-        <v>6601</v>
-      </c>
+    <row r="506" spans="7:7">
       <c r="G506" s="2"/>
     </row>
-    <row r="507" spans="3:7">
+    <row r="507" spans="2:7">
+      <c r="B507">
+        <f>B502+1</f>
+        <v>100</v>
+      </c>
       <c r="C507" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D507">
-        <v>6</v>
+        <v>5500</v>
+      </c>
+      <c r="E507" t="s">
+        <v>65</v>
       </c>
       <c r="G507" s="2"/>
     </row>
-    <row r="508" spans="7:7">
+    <row r="508" spans="3:7">
+      <c r="C508" t="s">
+        <v>49</v>
+      </c>
+      <c r="D508">
+        <v>5</v>
+      </c>
       <c r="G508" s="2"/>
     </row>
-    <row r="509" spans="2:7">
-      <c r="B509">
-        <f>B503+1</f>
-        <v>128</v>
-      </c>
+    <row r="509" spans="3:7">
       <c r="C509" t="s">
         <v>12</v>
       </c>
       <c r="D509">
-        <f>D503+1</f>
-        <v>128</v>
-      </c>
-      <c r="E509" t="s">
-        <v>60</v>
+        <f>D504+1</f>
+        <v>100</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="G509" s="2"/>
     </row>
     <row r="510" spans="3:7">
       <c r="C510" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D510">
-        <v>1</v>
-      </c>
-      <c r="E510" t="s">
-        <v>62</v>
+        <v>-1</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G510" s="2"/>
     </row>
-    <row r="511" spans="3:7">
-      <c r="C511" t="s">
-        <v>63</v>
-      </c>
-      <c r="D511">
-        <v>30</v>
-      </c>
-      <c r="E511" t="s">
-        <v>64</v>
-      </c>
+    <row r="511" spans="7:7">
       <c r="G511" s="2"/>
     </row>
-    <row r="512" spans="3:7">
+    <row r="512" spans="2:7">
+      <c r="B512">
+        <f>B507+1</f>
+        <v>101</v>
+      </c>
       <c r="C512" t="s">
         <v>11</v>
       </c>
-      <c r="D512" s="2">
-        <v>6601</v>
+      <c r="D512">
+        <v>5500</v>
+      </c>
+      <c r="E512" t="s">
+        <v>65</v>
       </c>
       <c r="G512" s="2"/>
     </row>
     <row r="513" spans="3:7">
       <c r="C513" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D513">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G513" s="2"/>
     </row>
-    <row r="514" spans="7:7">
+    <row r="514" spans="3:7">
+      <c r="C514" t="s">
+        <v>12</v>
+      </c>
+      <c r="D514">
+        <f>D509+1</f>
+        <v>101</v>
+      </c>
+      <c r="E514" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="G514" s="2"/>
     </row>
-    <row r="515" spans="2:7">
-      <c r="B515">
-        <f>B509+1</f>
-        <v>129</v>
-      </c>
+    <row r="515" spans="3:7">
       <c r="C515" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D515">
-        <f>D509+1</f>
-        <v>129</v>
-      </c>
-      <c r="E515" t="s">
-        <v>60</v>
+        <v>-1</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G515" s="2"/>
     </row>
-    <row r="516" spans="3:7">
-      <c r="C516" t="s">
-        <v>61</v>
-      </c>
-      <c r="D516">
+    <row r="516" spans="7:7">
+      <c r="G516" s="2"/>
+    </row>
+    <row r="517" spans="2:10">
+      <c r="B517">
+        <f>B512+1</f>
+        <v>102</v>
+      </c>
+      <c r="C517" t="s">
+        <v>11</v>
+      </c>
+      <c r="D517">
+        <v>5500</v>
+      </c>
+      <c r="E517" t="s">
+        <v>65</v>
+      </c>
+      <c r="G517" s="2"/>
+      <c r="I517" t="s">
+        <v>73</v>
+      </c>
+      <c r="J517" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="518" spans="3:10">
+      <c r="C518" t="s">
+        <v>49</v>
+      </c>
+      <c r="D518">
+        <v>5</v>
+      </c>
+      <c r="G518" s="2"/>
+      <c r="I518">
+        <v>0.85</v>
+      </c>
+      <c r="J518">
+        <v>1.6626</v>
+      </c>
+    </row>
+    <row r="519" spans="3:10">
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519">
+        <f>D514+1</f>
+        <v>102</v>
+      </c>
+      <c r="E519" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G519" s="2"/>
+      <c r="I519">
+        <v>260</v>
+      </c>
+      <c r="J519">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="520" spans="3:10">
+      <c r="C520" t="s">
+        <v>63</v>
+      </c>
+      <c r="D520">
+        <v>-1</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G520" s="2"/>
+      <c r="I520">
+        <f>I518*I519</f>
+        <v>221</v>
+      </c>
+      <c r="J520">
+        <f>J518*J519</f>
+        <v>251.0526</v>
+      </c>
+    </row>
+    <row r="521" spans="7:7">
+      <c r="G521" s="2"/>
+    </row>
+    <row r="522" spans="2:10">
+      <c r="B522">
+        <v>103</v>
+      </c>
+      <c r="C522" t="s">
+        <v>12</v>
+      </c>
+      <c r="D522">
+        <v>103</v>
+      </c>
+      <c r="E522" t="s">
+        <v>76</v>
+      </c>
+      <c r="G522" s="2"/>
+      <c r="I522">
+        <v>163</v>
+      </c>
+      <c r="J522">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="523" spans="3:10">
+      <c r="C523" t="s">
+        <v>77</v>
+      </c>
+      <c r="D523">
         <v>1</v>
       </c>
-      <c r="E516" t="s">
-        <v>62</v>
-      </c>
-      <c r="G516" s="2"/>
-    </row>
-    <row r="517" spans="3:7">
-      <c r="C517" t="s">
-        <v>63</v>
-      </c>
-      <c r="D517">
-        <v>30</v>
-      </c>
-      <c r="E517" t="s">
-        <v>64</v>
-      </c>
-      <c r="G517" s="2"/>
-    </row>
-    <row r="518" spans="3:7">
-      <c r="C518" t="s">
-        <v>11</v>
-      </c>
-      <c r="D518" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G518" s="2"/>
-    </row>
-    <row r="519" spans="3:7">
-      <c r="C519" t="s">
-        <v>50</v>
-      </c>
-      <c r="D519">
-        <v>6</v>
-      </c>
-      <c r="G519" s="2"/>
-    </row>
-    <row r="520" spans="7:7">
-      <c r="G520" s="2"/>
-    </row>
-    <row r="521" spans="2:7">
-      <c r="B521">
-        <f>B515+1</f>
-        <v>130</v>
-      </c>
-      <c r="C521" t="s">
-        <v>12</v>
-      </c>
-      <c r="D521">
-        <f>D515+1</f>
-        <v>130</v>
-      </c>
-      <c r="E521" t="s">
-        <v>60</v>
-      </c>
-      <c r="G521" s="2"/>
-    </row>
-    <row r="522" spans="3:7">
-      <c r="C522" t="s">
-        <v>61</v>
-      </c>
-      <c r="D522">
-        <v>1</v>
-      </c>
-      <c r="E522" t="s">
-        <v>62</v>
-      </c>
-      <c r="G522" s="2"/>
-    </row>
-    <row r="523" spans="3:7">
-      <c r="C523" t="s">
-        <v>63</v>
-      </c>
-      <c r="D523">
-        <v>30</v>
-      </c>
       <c r="E523" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G523" s="2"/>
+      <c r="I523">
+        <v>1.25</v>
+      </c>
+      <c r="J523">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="524" spans="3:7">
       <c r="C524" t="s">
-        <v>11</v>
-      </c>
-      <c r="D524" s="2">
-        <v>6601</v>
+        <v>79</v>
+      </c>
+      <c r="D524">
+        <v>30</v>
+      </c>
+      <c r="E524" t="s">
+        <v>80</v>
       </c>
       <c r="G524" s="2"/>
     </row>
     <row r="525" spans="3:7">
       <c r="C525" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D525">
+        <v>6600</v>
+      </c>
+      <c r="G525" s="2"/>
+    </row>
+    <row r="526" spans="3:7">
+      <c r="C526" t="s">
+        <v>49</v>
+      </c>
+      <c r="D526">
         <v>6</v>
       </c>
-      <c r="G525" s="2"/>
-    </row>
-    <row r="526" spans="7:7">
       <c r="G526" s="2"/>
     </row>
-    <row r="527" spans="2:7">
-      <c r="B527">
-        <f>B521+1</f>
-        <v>131</v>
-      </c>
+    <row r="527" spans="3:7">
       <c r="C527" t="s">
-        <v>12</v>
-      </c>
-      <c r="D527">
-        <f>D521+1</f>
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="D527" s="8">
+        <v>28</v>
       </c>
       <c r="E527" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G527" s="2"/>
     </row>
-    <row r="528" spans="3:7">
-      <c r="C528" t="s">
-        <v>61</v>
-      </c>
-      <c r="D528">
-        <v>1</v>
-      </c>
-      <c r="E528" t="s">
-        <v>62</v>
-      </c>
+    <row r="528" spans="7:7">
       <c r="G528" s="2"/>
     </row>
-    <row r="529" spans="3:7">
+    <row r="529" spans="2:7">
+      <c r="B529">
+        <f>B522+1</f>
+        <v>104</v>
+      </c>
       <c r="C529" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D529">
-        <v>30</v>
+        <f>D522+1</f>
+        <v>104</v>
       </c>
       <c r="E529" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G529" s="2"/>
     </row>
     <row r="530" spans="3:7">
       <c r="C530" t="s">
-        <v>11</v>
-      </c>
-      <c r="D530" s="2">
-        <v>6601</v>
+        <v>77</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530" t="s">
+        <v>78</v>
       </c>
       <c r="G530" s="2"/>
     </row>
     <row r="531" spans="3:7">
       <c r="C531" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D531">
+        <v>30</v>
+      </c>
+      <c r="E531" t="s">
+        <v>80</v>
+      </c>
+      <c r="G531" s="2"/>
+    </row>
+    <row r="532" spans="3:7">
+      <c r="C532" t="s">
+        <v>11</v>
+      </c>
+      <c r="D532">
+        <v>6600</v>
+      </c>
+      <c r="G532" s="2"/>
+    </row>
+    <row r="533" spans="3:7">
+      <c r="C533" t="s">
+        <v>49</v>
+      </c>
+      <c r="D533">
         <v>6</v>
-      </c>
-      <c r="G531" s="2"/>
-    </row>
-    <row r="532" spans="7:7">
-      <c r="G532" s="2"/>
-    </row>
-    <row r="533" spans="2:7">
-      <c r="B533">
-        <f>B527+1</f>
-        <v>132</v>
-      </c>
-      <c r="C533" t="s">
-        <v>12</v>
-      </c>
-      <c r="D533">
-        <f>D527+1</f>
-        <v>132</v>
-      </c>
-      <c r="E533" t="s">
-        <v>60</v>
       </c>
       <c r="G533" s="2"/>
     </row>
     <row r="534" spans="3:7">
       <c r="C534" t="s">
-        <v>61</v>
-      </c>
-      <c r="D534">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D534" s="8">
+        <v>28</v>
       </c>
       <c r="E534" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G534" s="2"/>
     </row>
-    <row r="535" spans="3:7">
-      <c r="C535" t="s">
-        <v>63</v>
-      </c>
-      <c r="D535">
-        <v>30</v>
-      </c>
-      <c r="E535" t="s">
-        <v>64</v>
-      </c>
+    <row r="535" spans="7:7">
       <c r="G535" s="2"/>
     </row>
-    <row r="536" spans="3:7">
+    <row r="536" spans="2:7">
+      <c r="B536">
+        <f>B529+1</f>
+        <v>105</v>
+      </c>
       <c r="C536" t="s">
-        <v>11</v>
-      </c>
-      <c r="D536" s="2">
-        <v>6601</v>
+        <v>12</v>
+      </c>
+      <c r="D536">
+        <f>D529+1</f>
+        <v>105</v>
+      </c>
+      <c r="E536" t="s">
+        <v>76</v>
       </c>
       <c r="G536" s="2"/>
     </row>
     <row r="537" spans="3:7">
       <c r="C537" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D537">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E537" t="s">
+        <v>78</v>
       </c>
       <c r="G537" s="2"/>
     </row>
-    <row r="538" spans="7:7">
+    <row r="538" spans="3:7">
+      <c r="C538" t="s">
+        <v>79</v>
+      </c>
+      <c r="D538">
+        <v>30</v>
+      </c>
+      <c r="E538" t="s">
+        <v>80</v>
+      </c>
       <c r="G538" s="2"/>
     </row>
-    <row r="539" spans="2:7">
-      <c r="B539">
-        <f>B533+1</f>
-        <v>133</v>
-      </c>
+    <row r="539" spans="3:7">
       <c r="C539" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D539">
-        <f>D533+1</f>
-        <v>133</v>
-      </c>
-      <c r="E539" t="s">
-        <v>60</v>
+        <v>6600</v>
       </c>
       <c r="G539" s="2"/>
     </row>
     <row r="540" spans="3:7">
       <c r="C540" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D540">
-        <v>1</v>
-      </c>
-      <c r="E540" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G540" s="2"/>
     </row>
     <row r="541" spans="3:7">
       <c r="C541" t="s">
-        <v>63</v>
-      </c>
-      <c r="D541">
+        <v>10</v>
+      </c>
+      <c r="D541" s="8">
+        <v>28</v>
+      </c>
+      <c r="E541" t="s">
+        <v>81</v>
+      </c>
+      <c r="G541" s="2"/>
+    </row>
+    <row r="542" spans="7:7">
+      <c r="G542" s="2"/>
+    </row>
+    <row r="543" spans="2:7">
+      <c r="B543">
+        <f>B536+1</f>
+        <v>106</v>
+      </c>
+      <c r="C543" t="s">
+        <v>12</v>
+      </c>
+      <c r="D543">
+        <f>D536+1</f>
+        <v>106</v>
+      </c>
+      <c r="E543" t="s">
+        <v>76</v>
+      </c>
+      <c r="G543" s="2"/>
+    </row>
+    <row r="544" spans="3:7">
+      <c r="C544" t="s">
+        <v>77</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544" t="s">
+        <v>78</v>
+      </c>
+      <c r="G544" s="2"/>
+    </row>
+    <row r="545" spans="3:7">
+      <c r="C545" t="s">
+        <v>79</v>
+      </c>
+      <c r="D545">
         <v>30</v>
       </c>
-      <c r="E541" t="s">
-        <v>64</v>
-      </c>
-      <c r="G541" s="2"/>
-    </row>
-    <row r="542" spans="3:7">
-      <c r="C542" t="s">
-        <v>11</v>
-      </c>
-      <c r="D542" s="2">
-        <v>6601</v>
-      </c>
-      <c r="G542" s="2"/>
-    </row>
-    <row r="543" spans="3:7">
-      <c r="C543" t="s">
-        <v>50</v>
-      </c>
-      <c r="D543">
-        <v>6</v>
-      </c>
-      <c r="G543" s="2"/>
-    </row>
-    <row r="544" spans="7:7">
-      <c r="G544" s="2"/>
-    </row>
-    <row r="545" spans="2:7">
-      <c r="B545">
-        <f>B539+1</f>
-        <v>134</v>
-      </c>
-      <c r="C545" t="s">
-        <v>12</v>
-      </c>
-      <c r="D545">
-        <f>D539+1</f>
-        <v>134</v>
-      </c>
       <c r="E545" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G545" s="2"/>
     </row>
     <row r="546" spans="3:7">
       <c r="C546" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D546">
-        <v>1</v>
-      </c>
-      <c r="E546" t="s">
-        <v>62</v>
+        <v>6600</v>
       </c>
       <c r="G546" s="2"/>
     </row>
     <row r="547" spans="3:7">
       <c r="C547" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D547">
-        <v>30</v>
-      </c>
-      <c r="E547" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="G547" s="2"/>
     </row>
     <row r="548" spans="3:7">
       <c r="C548" t="s">
-        <v>11</v>
-      </c>
-      <c r="D548" s="2">
-        <v>6601</v>
+        <v>10</v>
+      </c>
+      <c r="D548" s="8">
+        <v>28</v>
+      </c>
+      <c r="E548" t="s">
+        <v>81</v>
       </c>
       <c r="G548" s="2"/>
     </row>
-    <row r="549" spans="3:7">
-      <c r="C549" t="s">
-        <v>50</v>
-      </c>
-      <c r="D549">
-        <v>6</v>
-      </c>
+    <row r="549" spans="7:7">
       <c r="G549" s="2"/>
     </row>
-    <row r="550" spans="7:7">
+    <row r="550" spans="2:7">
+      <c r="B550">
+        <f>B543+1</f>
+        <v>107</v>
+      </c>
+      <c r="C550" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550">
+        <f>D543+1</f>
+        <v>107</v>
+      </c>
+      <c r="E550" t="s">
+        <v>76</v>
+      </c>
       <c r="G550" s="2"/>
     </row>
-    <row r="551" spans="2:7">
-      <c r="B551">
-        <f>B545+1</f>
-        <v>135</v>
-      </c>
+    <row r="551" spans="3:7">
       <c r="C551" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D551">
-        <f>D545+1</f>
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="E551" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G551" s="2"/>
     </row>
     <row r="552" spans="3:7">
       <c r="C552" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D552">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E552" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G552" s="2"/>
     </row>
     <row r="553" spans="3:7">
       <c r="C553" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D553">
-        <v>30</v>
-      </c>
-      <c r="E553" t="s">
-        <v>64</v>
+        <v>6600</v>
       </c>
       <c r="G553" s="2"/>
     </row>
     <row r="554" spans="3:7">
       <c r="C554" t="s">
-        <v>11</v>
-      </c>
-      <c r="D554" s="2">
-        <v>6601</v>
+        <v>49</v>
+      </c>
+      <c r="D554">
+        <v>6</v>
       </c>
       <c r="G554" s="2"/>
     </row>
     <row r="555" spans="3:7">
       <c r="C555" t="s">
-        <v>50</v>
-      </c>
-      <c r="D555">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D555" s="8">
+        <v>28</v>
+      </c>
+      <c r="E555" t="s">
+        <v>81</v>
       </c>
       <c r="G555" s="2"/>
     </row>
@@ -7110,42 +7210,42 @@
     </row>
     <row r="557" spans="2:7">
       <c r="B557">
-        <f>B551+1</f>
-        <v>136</v>
+        <f>B550+1</f>
+        <v>108</v>
       </c>
       <c r="C557" t="s">
         <v>12</v>
       </c>
       <c r="D557">
-        <f>D551+1</f>
-        <v>136</v>
+        <f>D550+1</f>
+        <v>108</v>
       </c>
       <c r="E557" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G557" s="2"/>
     </row>
     <row r="558" spans="3:7">
       <c r="C558" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D558">
         <v>1</v>
       </c>
       <c r="E558" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G558" s="2"/>
     </row>
     <row r="559" spans="3:7">
       <c r="C559" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D559">
         <v>30</v>
       </c>
       <c r="E559" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G559" s="2"/>
     </row>
@@ -7153,283 +7253,295 @@
       <c r="C560" t="s">
         <v>11</v>
       </c>
-      <c r="D560" s="2">
-        <v>6601</v>
+      <c r="D560">
+        <v>6600</v>
       </c>
       <c r="G560" s="2"/>
     </row>
     <row r="561" spans="3:7">
       <c r="C561" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D561">
         <v>6</v>
       </c>
       <c r="G561" s="2"/>
     </row>
-    <row r="562" spans="7:7">
+    <row r="562" spans="3:7">
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" s="8">
+        <v>28</v>
+      </c>
+      <c r="E562" t="s">
+        <v>81</v>
+      </c>
       <c r="G562" s="2"/>
     </row>
-    <row r="563" spans="2:7">
-      <c r="B563">
+    <row r="563" spans="7:7">
+      <c r="G563" s="2"/>
+    </row>
+    <row r="564" spans="2:7">
+      <c r="B564">
         <f>B557+1</f>
-        <v>137</v>
-      </c>
-      <c r="C563" t="s">
-        <v>12</v>
-      </c>
-      <c r="D563">
+        <v>109</v>
+      </c>
+      <c r="C564" t="s">
+        <v>12</v>
+      </c>
+      <c r="D564">
         <f>D557+1</f>
-        <v>137</v>
-      </c>
-      <c r="E563" t="s">
-        <v>60</v>
-      </c>
-      <c r="G563" s="2"/>
-    </row>
-    <row r="564" spans="3:7">
-      <c r="C564" t="s">
-        <v>61</v>
-      </c>
-      <c r="D564">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E564" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G564" s="2"/>
     </row>
     <row r="565" spans="3:7">
       <c r="C565" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D565">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G565" s="2"/>
     </row>
     <row r="566" spans="3:7">
       <c r="C566" t="s">
-        <v>11</v>
-      </c>
-      <c r="D566" s="2">
-        <v>6601</v>
+        <v>79</v>
+      </c>
+      <c r="D566">
+        <v>30</v>
+      </c>
+      <c r="E566" t="s">
+        <v>80</v>
       </c>
       <c r="G566" s="2"/>
     </row>
     <row r="567" spans="3:7">
       <c r="C567" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D567">
+        <v>6600</v>
+      </c>
+      <c r="G567" s="2"/>
+    </row>
+    <row r="568" spans="3:7">
+      <c r="C568" t="s">
+        <v>49</v>
+      </c>
+      <c r="D568">
         <v>6</v>
       </c>
-      <c r="G567" s="2"/>
-    </row>
-    <row r="568" spans="7:7">
       <c r="G568" s="2"/>
     </row>
-    <row r="569" spans="2:7">
-      <c r="B569">
-        <f>B563+1</f>
-        <v>138</v>
-      </c>
+    <row r="569" spans="3:7">
       <c r="C569" t="s">
-        <v>12</v>
-      </c>
-      <c r="D569">
-        <f>D563+1</f>
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="D569" s="8">
+        <v>28</v>
       </c>
       <c r="E569" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G569" s="2"/>
     </row>
-    <row r="570" spans="3:7">
-      <c r="C570" t="s">
-        <v>61</v>
-      </c>
-      <c r="D570">
-        <v>1</v>
-      </c>
-      <c r="E570" t="s">
-        <v>62</v>
-      </c>
+    <row r="570" spans="7:7">
       <c r="G570" s="2"/>
     </row>
-    <row r="571" spans="3:7">
+    <row r="571" spans="2:7">
+      <c r="B571">
+        <f>B564+1</f>
+        <v>110</v>
+      </c>
       <c r="C571" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D571">
-        <v>30</v>
+        <f>D564+1</f>
+        <v>110</v>
       </c>
       <c r="E571" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G571" s="2"/>
     </row>
     <row r="572" spans="3:7">
       <c r="C572" t="s">
-        <v>11</v>
-      </c>
-      <c r="D572" s="2">
-        <v>6601</v>
+        <v>77</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572" t="s">
+        <v>78</v>
       </c>
       <c r="G572" s="2"/>
     </row>
     <row r="573" spans="3:7">
       <c r="C573" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D573">
+        <v>30</v>
+      </c>
+      <c r="E573" t="s">
+        <v>80</v>
+      </c>
+      <c r="G573" s="2"/>
+    </row>
+    <row r="574" spans="3:7">
+      <c r="C574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574">
+        <v>6600</v>
+      </c>
+      <c r="G574" s="2"/>
+    </row>
+    <row r="575" spans="3:7">
+      <c r="C575" t="s">
+        <v>49</v>
+      </c>
+      <c r="D575">
         <v>6</v>
-      </c>
-      <c r="G573" s="2"/>
-    </row>
-    <row r="574" spans="7:7">
-      <c r="G574" s="2"/>
-    </row>
-    <row r="575" spans="2:7">
-      <c r="B575">
-        <f>B569+1</f>
-        <v>139</v>
-      </c>
-      <c r="C575" t="s">
-        <v>12</v>
-      </c>
-      <c r="D575">
-        <f>D569+1</f>
-        <v>139</v>
-      </c>
-      <c r="E575" t="s">
-        <v>60</v>
       </c>
       <c r="G575" s="2"/>
     </row>
     <row r="576" spans="3:7">
       <c r="C576" t="s">
-        <v>61</v>
-      </c>
-      <c r="D576">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D576" s="8">
+        <v>28</v>
       </c>
       <c r="E576" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G576" s="2"/>
     </row>
-    <row r="577" spans="3:7">
-      <c r="C577" t="s">
-        <v>63</v>
-      </c>
-      <c r="D577">
-        <v>30</v>
-      </c>
-      <c r="E577" t="s">
-        <v>64</v>
-      </c>
+    <row r="577" spans="7:7">
       <c r="G577" s="2"/>
     </row>
-    <row r="578" spans="3:7">
+    <row r="578" spans="2:7">
+      <c r="B578">
+        <f>B571+1</f>
+        <v>111</v>
+      </c>
       <c r="C578" t="s">
-        <v>11</v>
-      </c>
-      <c r="D578" s="2">
-        <v>6601</v>
+        <v>12</v>
+      </c>
+      <c r="D578">
+        <f>D571+1</f>
+        <v>111</v>
+      </c>
+      <c r="E578" t="s">
+        <v>76</v>
       </c>
       <c r="G578" s="2"/>
     </row>
     <row r="579" spans="3:7">
       <c r="C579" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D579">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>78</v>
       </c>
       <c r="G579" s="2"/>
     </row>
-    <row r="580" spans="7:7">
+    <row r="580" spans="3:7">
+      <c r="C580" t="s">
+        <v>79</v>
+      </c>
+      <c r="D580">
+        <v>30</v>
+      </c>
+      <c r="E580" t="s">
+        <v>80</v>
+      </c>
       <c r="G580" s="2"/>
     </row>
-    <row r="581" spans="2:7">
-      <c r="B581">
-        <f>B575+1</f>
-        <v>140</v>
-      </c>
+    <row r="581" spans="3:7">
       <c r="C581" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D581">
-        <v>42</v>
-      </c>
-      <c r="E581" s="5" t="s">
-        <v>65</v>
+        <v>6600</v>
       </c>
       <c r="G581" s="2"/>
     </row>
     <row r="582" spans="3:7">
       <c r="C582" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D582">
-        <v>2468</v>
-      </c>
-      <c r="E582" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="G582" s="2"/>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" t="s">
-        <v>12</v>
-      </c>
-      <c r="D583">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="D583" s="8">
+        <v>28</v>
+      </c>
+      <c r="E583" t="s">
+        <v>81</v>
       </c>
       <c r="G583" s="2"/>
     </row>
-    <row r="584" spans="3:7">
-      <c r="C584" t="s">
-        <v>17</v>
-      </c>
-      <c r="D584">
-        <v>1001</v>
-      </c>
+    <row r="584" spans="7:7">
       <c r="G584" s="2"/>
     </row>
-    <row r="585" spans="3:7">
+    <row r="585" spans="2:7">
+      <c r="B585">
+        <f>B578+1</f>
+        <v>112</v>
+      </c>
       <c r="C585" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D585">
-        <v>4</v>
+        <f>D578+1</f>
+        <v>112</v>
       </c>
       <c r="E585" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G585" s="2"/>
     </row>
-    <row r="586" spans="7:7">
+    <row r="586" spans="3:7">
+      <c r="C586" t="s">
+        <v>77</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586" t="s">
+        <v>78</v>
+      </c>
       <c r="G586" s="2"/>
     </row>
-    <row r="587" spans="2:7">
-      <c r="B587">
-        <f>B581+1</f>
-        <v>141</v>
-      </c>
+    <row r="587" spans="3:7">
       <c r="C587" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D587">
-        <v>42</v>
-      </c>
-      <c r="E587" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="E587" t="s">
+        <v>80</v>
       </c>
       <c r="G587" s="2"/>
     </row>
@@ -7438,1019 +7550,2779 @@
         <v>11</v>
       </c>
       <c r="D588">
-        <v>2468</v>
-      </c>
-      <c r="E588" s="5" t="s">
-        <v>66</v>
+        <v>6600</v>
       </c>
       <c r="G588" s="2"/>
     </row>
     <row r="589" spans="3:7">
       <c r="C589" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D589">
-        <f>D583+1</f>
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="G589" s="2"/>
     </row>
     <row r="590" spans="3:7">
       <c r="C590" t="s">
-        <v>17</v>
-      </c>
-      <c r="D590">
-        <v>1001</v>
+        <v>10</v>
+      </c>
+      <c r="D590" s="8">
+        <v>28</v>
+      </c>
+      <c r="E590" t="s">
+        <v>81</v>
       </c>
       <c r="G590" s="2"/>
     </row>
-    <row r="591" spans="3:7">
-      <c r="C591" t="s">
-        <v>67</v>
-      </c>
-      <c r="D591">
-        <v>4</v>
-      </c>
-      <c r="E591" t="s">
-        <v>68</v>
-      </c>
+    <row r="591" spans="7:7">
       <c r="G591" s="2"/>
     </row>
-    <row r="592" spans="7:7">
+    <row r="592" spans="2:7">
+      <c r="B592">
+        <f>B585+1</f>
+        <v>113</v>
+      </c>
+      <c r="C592" t="s">
+        <v>12</v>
+      </c>
+      <c r="D592">
+        <f>D585+1</f>
+        <v>113</v>
+      </c>
+      <c r="E592" t="s">
+        <v>76</v>
+      </c>
       <c r="G592" s="2"/>
     </row>
-    <row r="593" spans="2:7">
-      <c r="B593">
-        <f>B587+1</f>
-        <v>142</v>
-      </c>
+    <row r="593" spans="3:7">
       <c r="C593" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D593">
-        <v>42</v>
-      </c>
-      <c r="E593" s="5" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E593" t="s">
+        <v>78</v>
       </c>
       <c r="G593" s="2"/>
     </row>
     <row r="594" spans="3:7">
       <c r="C594" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D594">
-        <v>2468</v>
-      </c>
-      <c r="E594" s="5" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E594" t="s">
+        <v>80</v>
       </c>
       <c r="G594" s="2"/>
     </row>
     <row r="595" spans="3:7">
       <c r="C595" t="s">
-        <v>12</v>
-      </c>
-      <c r="D595">
-        <f>D589+1</f>
-        <v>142</v>
+        <v>11</v>
+      </c>
+      <c r="D595" s="2">
+        <v>6601</v>
       </c>
       <c r="G595" s="2"/>
     </row>
     <row r="596" spans="3:7">
       <c r="C596" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D596">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="G596" s="2"/>
     </row>
-    <row r="597" spans="3:7">
-      <c r="C597" t="s">
-        <v>67</v>
-      </c>
-      <c r="D597">
-        <v>4</v>
-      </c>
-      <c r="E597" t="s">
-        <v>68</v>
-      </c>
+    <row r="597" spans="7:7">
       <c r="G597" s="2"/>
     </row>
-    <row r="598" spans="7:7">
+    <row r="598" customFormat="1" spans="2:7">
+      <c r="B598">
+        <f>B592+1</f>
+        <v>114</v>
+      </c>
+      <c r="C598" t="s">
+        <v>12</v>
+      </c>
+      <c r="D598">
+        <f>D592+1</f>
+        <v>114</v>
+      </c>
+      <c r="E598" t="s">
+        <v>76</v>
+      </c>
       <c r="G598" s="2"/>
     </row>
-    <row r="599" spans="2:7">
-      <c r="B599">
-        <f>B593+1</f>
-        <v>143</v>
-      </c>
+    <row r="599" customFormat="1" spans="3:7">
       <c r="C599" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D599">
-        <v>43</v>
-      </c>
-      <c r="E599" s="5" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>78</v>
       </c>
       <c r="G599" s="2"/>
     </row>
-    <row r="600" spans="3:7">
+    <row r="600" customFormat="1" spans="3:7">
       <c r="C600" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D600">
-        <v>2468</v>
-      </c>
-      <c r="E600" s="5" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E600" t="s">
+        <v>80</v>
       </c>
       <c r="G600" s="2"/>
     </row>
-    <row r="601" spans="3:7">
+    <row r="601" customFormat="1" spans="3:7">
       <c r="C601" t="s">
-        <v>12</v>
-      </c>
-      <c r="D601">
-        <f>D595+1</f>
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="D601" s="2">
+        <v>6601</v>
       </c>
       <c r="G601" s="2"/>
     </row>
-    <row r="602" spans="3:7">
+    <row r="602" customFormat="1" spans="3:7">
       <c r="C602" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D602">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="G602" s="2"/>
     </row>
-    <row r="603" spans="3:7">
-      <c r="C603" t="s">
-        <v>67</v>
-      </c>
-      <c r="D603">
+    <row r="603" spans="7:7">
+      <c r="G603" s="2"/>
+    </row>
+    <row r="604" customFormat="1" spans="2:7">
+      <c r="B604">
+        <f>B598+1</f>
+        <v>115</v>
+      </c>
+      <c r="C604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604">
+        <f>D598+1</f>
+        <v>115</v>
+      </c>
+      <c r="E604" t="s">
+        <v>76</v>
+      </c>
+      <c r="G604" s="2"/>
+    </row>
+    <row r="605" customFormat="1" spans="3:7">
+      <c r="C605" t="s">
+        <v>77</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>78</v>
+      </c>
+      <c r="G605" s="2"/>
+    </row>
+    <row r="606" customFormat="1" spans="3:7">
+      <c r="C606" t="s">
+        <v>79</v>
+      </c>
+      <c r="D606">
+        <v>30</v>
+      </c>
+      <c r="E606" t="s">
+        <v>80</v>
+      </c>
+      <c r="G606" s="2"/>
+    </row>
+    <row r="607" customFormat="1" spans="3:7">
+      <c r="C607" t="s">
+        <v>11</v>
+      </c>
+      <c r="D607" s="2">
+        <v>6601</v>
+      </c>
+      <c r="G607" s="2"/>
+    </row>
+    <row r="608" customFormat="1" spans="3:7">
+      <c r="C608" t="s">
+        <v>49</v>
+      </c>
+      <c r="D608">
         <v>6</v>
       </c>
-      <c r="E603" t="s">
-        <v>70</v>
-      </c>
-      <c r="G603" s="2"/>
-    </row>
-    <row r="604" spans="7:7">
-      <c r="G604" s="2"/>
-    </row>
-    <row r="605" spans="2:7">
-      <c r="B605">
-        <f>B599+1</f>
-        <v>144</v>
-      </c>
-      <c r="C605" t="s">
-        <v>10</v>
-      </c>
-      <c r="D605">
-        <v>43</v>
-      </c>
-      <c r="E605" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G605" s="2"/>
-    </row>
-    <row r="606" spans="3:7">
-      <c r="C606" t="s">
-        <v>11</v>
-      </c>
-      <c r="D606">
-        <v>2468</v>
-      </c>
-      <c r="E606" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G606" s="2"/>
-    </row>
-    <row r="607" spans="3:7">
-      <c r="C607" t="s">
-        <v>12</v>
-      </c>
-      <c r="D607">
-        <f>D601+1</f>
-        <v>144</v>
-      </c>
-      <c r="G607" s="2"/>
-    </row>
-    <row r="608" spans="3:7">
-      <c r="C608" t="s">
-        <v>17</v>
-      </c>
-      <c r="D608">
-        <v>1001</v>
-      </c>
       <c r="G608" s="2"/>
     </row>
-    <row r="609" spans="3:7">
-      <c r="C609" t="s">
-        <v>67</v>
-      </c>
-      <c r="D609">
+    <row r="609" spans="7:7">
+      <c r="G609" s="2"/>
+    </row>
+    <row r="610" customFormat="1" spans="2:7">
+      <c r="B610">
+        <f>B604+1</f>
+        <v>116</v>
+      </c>
+      <c r="C610" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610">
+        <f>D604+1</f>
+        <v>116</v>
+      </c>
+      <c r="E610" t="s">
+        <v>76</v>
+      </c>
+      <c r="G610" s="2"/>
+    </row>
+    <row r="611" customFormat="1" spans="3:7">
+      <c r="C611" t="s">
+        <v>77</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
+        <v>78</v>
+      </c>
+      <c r="G611" s="2"/>
+    </row>
+    <row r="612" customFormat="1" spans="3:7">
+      <c r="C612" t="s">
+        <v>79</v>
+      </c>
+      <c r="D612">
+        <v>30</v>
+      </c>
+      <c r="E612" t="s">
+        <v>80</v>
+      </c>
+      <c r="G612" s="2"/>
+    </row>
+    <row r="613" customFormat="1" spans="3:7">
+      <c r="C613" t="s">
+        <v>11</v>
+      </c>
+      <c r="D613" s="2">
+        <v>6601</v>
+      </c>
+      <c r="G613" s="2"/>
+    </row>
+    <row r="614" customFormat="1" spans="3:7">
+      <c r="C614" t="s">
+        <v>49</v>
+      </c>
+      <c r="D614">
         <v>6</v>
       </c>
-      <c r="E609" t="s">
-        <v>70</v>
-      </c>
-      <c r="G609" s="2"/>
-    </row>
-    <row r="610" spans="7:7">
-      <c r="G610" s="2"/>
-    </row>
-    <row r="611" spans="2:7">
-      <c r="B611">
-        <f>B605+1</f>
-        <v>145</v>
-      </c>
-      <c r="C611" t="s">
-        <v>10</v>
-      </c>
-      <c r="D611">
-        <v>43</v>
-      </c>
-      <c r="E611" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G611" s="2"/>
-    </row>
-    <row r="612" spans="3:7">
-      <c r="C612" t="s">
-        <v>11</v>
-      </c>
-      <c r="D612">
-        <v>2468</v>
-      </c>
-      <c r="E612" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G612" s="2"/>
-    </row>
-    <row r="613" spans="3:7">
-      <c r="C613" t="s">
-        <v>12</v>
-      </c>
-      <c r="D613">
-        <f>D607+1</f>
-        <v>145</v>
-      </c>
-      <c r="G613" s="2"/>
-    </row>
-    <row r="614" spans="3:7">
-      <c r="C614" t="s">
-        <v>17</v>
-      </c>
-      <c r="D614">
-        <v>1001</v>
-      </c>
       <c r="G614" s="2"/>
     </row>
-    <row r="615" spans="3:7">
-      <c r="C615" t="s">
-        <v>67</v>
-      </c>
-      <c r="D615">
+    <row r="615" spans="7:7">
+      <c r="G615" s="2"/>
+    </row>
+    <row r="616" customFormat="1" spans="2:7">
+      <c r="B616">
+        <f>B610+1</f>
+        <v>117</v>
+      </c>
+      <c r="C616" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616">
+        <f>D610+1</f>
+        <v>117</v>
+      </c>
+      <c r="E616" t="s">
+        <v>76</v>
+      </c>
+      <c r="G616" s="2"/>
+    </row>
+    <row r="617" customFormat="1" spans="3:7">
+      <c r="C617" t="s">
+        <v>77</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>78</v>
+      </c>
+      <c r="G617" s="2"/>
+    </row>
+    <row r="618" customFormat="1" spans="3:7">
+      <c r="C618" t="s">
+        <v>79</v>
+      </c>
+      <c r="D618">
+        <v>30</v>
+      </c>
+      <c r="E618" t="s">
+        <v>80</v>
+      </c>
+      <c r="G618" s="2"/>
+    </row>
+    <row r="619" customFormat="1" spans="3:7">
+      <c r="C619" t="s">
+        <v>11</v>
+      </c>
+      <c r="D619" s="2">
+        <v>6601</v>
+      </c>
+      <c r="G619" s="2"/>
+    </row>
+    <row r="620" customFormat="1" spans="3:7">
+      <c r="C620" t="s">
+        <v>49</v>
+      </c>
+      <c r="D620">
         <v>6</v>
       </c>
-      <c r="E615" t="s">
-        <v>70</v>
-      </c>
-      <c r="G615" s="2"/>
-    </row>
-    <row r="616" spans="7:7">
-      <c r="G616" s="2"/>
-    </row>
-    <row r="617" spans="2:7">
-      <c r="B617">
-        <f>B611+1</f>
-        <v>146</v>
-      </c>
-      <c r="C617" t="s">
-        <v>10</v>
-      </c>
-      <c r="D617">
-        <v>43</v>
-      </c>
-      <c r="E617" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G617" s="2"/>
-    </row>
-    <row r="618" spans="3:7">
-      <c r="C618" t="s">
-        <v>11</v>
-      </c>
-      <c r="D618">
-        <v>2468</v>
-      </c>
-      <c r="E618" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G618" s="2"/>
-    </row>
-    <row r="619" spans="3:7">
-      <c r="C619" t="s">
-        <v>12</v>
-      </c>
-      <c r="D619">
-        <f>D613+1</f>
-        <v>146</v>
-      </c>
-      <c r="G619" s="2"/>
-    </row>
-    <row r="620" spans="3:7">
-      <c r="C620" t="s">
-        <v>17</v>
-      </c>
-      <c r="D620">
-        <v>1001</v>
-      </c>
       <c r="G620" s="2"/>
     </row>
-    <row r="621" spans="3:7">
-      <c r="C621" t="s">
-        <v>67</v>
-      </c>
-      <c r="D621">
+    <row r="621" spans="7:7">
+      <c r="G621" s="2"/>
+    </row>
+    <row r="622" customFormat="1" spans="2:7">
+      <c r="B622">
+        <f>B616+1</f>
+        <v>118</v>
+      </c>
+      <c r="C622" t="s">
+        <v>12</v>
+      </c>
+      <c r="D622">
+        <f>D616+1</f>
+        <v>118</v>
+      </c>
+      <c r="E622" t="s">
+        <v>76</v>
+      </c>
+      <c r="G622" s="2"/>
+    </row>
+    <row r="623" customFormat="1" spans="3:7">
+      <c r="C623" t="s">
+        <v>77</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623" t="s">
+        <v>78</v>
+      </c>
+      <c r="G623" s="2"/>
+    </row>
+    <row r="624" customFormat="1" spans="3:7">
+      <c r="C624" t="s">
+        <v>79</v>
+      </c>
+      <c r="D624">
+        <v>30</v>
+      </c>
+      <c r="E624" t="s">
+        <v>80</v>
+      </c>
+      <c r="G624" s="2"/>
+    </row>
+    <row r="625" customFormat="1" spans="3:7">
+      <c r="C625" t="s">
+        <v>11</v>
+      </c>
+      <c r="D625" s="2">
+        <v>6601</v>
+      </c>
+      <c r="G625" s="2"/>
+    </row>
+    <row r="626" customFormat="1" spans="3:7">
+      <c r="C626" t="s">
+        <v>49</v>
+      </c>
+      <c r="D626">
         <v>6</v>
       </c>
-      <c r="E621" t="s">
-        <v>70</v>
-      </c>
-      <c r="G621" s="2"/>
-    </row>
-    <row r="622" spans="7:7">
-      <c r="G622" s="2"/>
-    </row>
-    <row r="623" spans="2:7">
-      <c r="B623">
-        <f>B617+1</f>
-        <v>147</v>
-      </c>
-      <c r="C623" t="s">
-        <v>10</v>
-      </c>
-      <c r="D623">
-        <v>40</v>
-      </c>
-      <c r="E623" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G623" s="2"/>
-    </row>
-    <row r="624" spans="3:7">
-      <c r="C624" t="s">
-        <v>11</v>
-      </c>
-      <c r="D624">
-        <v>2468</v>
-      </c>
-      <c r="E624" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G624" s="2"/>
-    </row>
-    <row r="625" spans="3:7">
-      <c r="C625" t="s">
-        <v>12</v>
-      </c>
-      <c r="D625">
-        <f>D619+1</f>
-        <v>147</v>
-      </c>
-      <c r="G625" s="2"/>
-    </row>
-    <row r="626" spans="3:7">
-      <c r="C626" t="s">
-        <v>17</v>
-      </c>
-      <c r="D626">
-        <v>1001</v>
-      </c>
       <c r="G626" s="2"/>
     </row>
-    <row r="627" spans="3:7">
-      <c r="C627" t="s">
-        <v>67</v>
-      </c>
-      <c r="D627">
-        <v>8</v>
-      </c>
-      <c r="E627" t="s">
-        <v>72</v>
-      </c>
+    <row r="627" spans="7:7">
       <c r="G627" s="2"/>
     </row>
-    <row r="628" spans="7:7">
+    <row r="628" spans="2:7">
+      <c r="B628">
+        <f>B622+1</f>
+        <v>119</v>
+      </c>
+      <c r="C628" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628">
+        <f>D622+1</f>
+        <v>119</v>
+      </c>
+      <c r="E628" t="s">
+        <v>76</v>
+      </c>
       <c r="G628" s="2"/>
     </row>
-    <row r="629" spans="2:7">
-      <c r="B629">
-        <f>B623+1</f>
-        <v>148</v>
-      </c>
+    <row r="629" spans="3:7">
       <c r="C629" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D629">
-        <v>40</v>
-      </c>
-      <c r="E629" s="5" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="E629" t="s">
+        <v>78</v>
       </c>
       <c r="G629" s="2"/>
     </row>
     <row r="630" spans="3:7">
       <c r="C630" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D630">
-        <v>2468</v>
-      </c>
-      <c r="E630" s="5" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E630" t="s">
+        <v>80</v>
       </c>
       <c r="G630" s="2"/>
     </row>
     <row r="631" spans="3:7">
       <c r="C631" t="s">
-        <v>12</v>
-      </c>
-      <c r="D631">
-        <f>D625+1</f>
-        <v>148</v>
+        <v>11</v>
+      </c>
+      <c r="D631" s="2">
+        <v>6601</v>
       </c>
       <c r="G631" s="2"/>
     </row>
     <row r="632" spans="3:7">
       <c r="C632" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D632">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="G632" s="2"/>
     </row>
-    <row r="633" spans="3:7">
-      <c r="C633" t="s">
-        <v>67</v>
-      </c>
-      <c r="D633">
-        <v>8</v>
-      </c>
-      <c r="E633" t="s">
-        <v>72</v>
-      </c>
+    <row r="633" spans="7:7">
       <c r="G633" s="2"/>
     </row>
-    <row r="634" spans="7:7">
+    <row r="634" spans="2:7">
+      <c r="B634">
+        <f>B628+1</f>
+        <v>120</v>
+      </c>
+      <c r="C634" t="s">
+        <v>12</v>
+      </c>
+      <c r="D634">
+        <f>D628+1</f>
+        <v>120</v>
+      </c>
+      <c r="E634" t="s">
+        <v>76</v>
+      </c>
       <c r="G634" s="2"/>
     </row>
-    <row r="635" spans="2:7">
-      <c r="B635">
-        <f>B629+1</f>
-        <v>149</v>
-      </c>
+    <row r="635" spans="3:7">
       <c r="C635" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D635">
-        <v>41</v>
-      </c>
-      <c r="E635" s="5" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="E635" t="s">
+        <v>78</v>
       </c>
       <c r="G635" s="2"/>
     </row>
     <row r="636" spans="3:7">
       <c r="C636" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D636">
-        <v>2468</v>
-      </c>
-      <c r="E636" s="5" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E636" t="s">
+        <v>80</v>
       </c>
       <c r="G636" s="2"/>
     </row>
     <row r="637" spans="3:7">
       <c r="C637" t="s">
-        <v>12</v>
-      </c>
-      <c r="D637">
-        <f>D631+1</f>
-        <v>149</v>
+        <v>11</v>
+      </c>
+      <c r="D637" s="2">
+        <v>6601</v>
       </c>
       <c r="G637" s="2"/>
     </row>
     <row r="638" spans="3:7">
       <c r="C638" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D638">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="G638" s="2"/>
     </row>
-    <row r="639" spans="3:7">
-      <c r="C639" t="s">
-        <v>67</v>
-      </c>
-      <c r="D639">
-        <v>2</v>
-      </c>
-      <c r="E639" t="s">
-        <v>74</v>
-      </c>
+    <row r="639" spans="7:7">
       <c r="G639" s="2"/>
     </row>
-    <row r="640" spans="7:7">
+    <row r="640" spans="2:7">
+      <c r="B640">
+        <f>B634+1</f>
+        <v>121</v>
+      </c>
+      <c r="C640" t="s">
+        <v>12</v>
+      </c>
+      <c r="D640">
+        <f>D634+1</f>
+        <v>121</v>
+      </c>
+      <c r="E640" t="s">
+        <v>76</v>
+      </c>
       <c r="G640" s="2"/>
     </row>
-    <row r="641" spans="2:7">
-      <c r="B641">
-        <v>150</v>
-      </c>
+    <row r="641" spans="3:7">
       <c r="C641" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D641">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E641" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G641" s="2"/>
     </row>
     <row r="642" spans="3:7">
       <c r="C642" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D642">
-        <v>1105</v>
-      </c>
-      <c r="E642" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="E642" t="s">
+        <v>80</v>
       </c>
       <c r="G642" s="2"/>
     </row>
     <row r="643" spans="3:7">
       <c r="C643" t="s">
-        <v>17</v>
-      </c>
-      <c r="D643">
-        <v>1001</v>
+        <v>11</v>
+      </c>
+      <c r="D643" s="2">
+        <v>6601</v>
       </c>
       <c r="G643" s="2"/>
     </row>
     <row r="644" spans="3:7">
       <c r="C644" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D644">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G644" s="2"/>
     </row>
-    <row r="645" spans="2:7">
-      <c r="B645">
-        <v>151</v>
-      </c>
-      <c r="C645" t="s">
-        <v>10</v>
-      </c>
-      <c r="D645">
-        <v>17</v>
-      </c>
-      <c r="E645" s="5" t="s">
-        <v>37</v>
-      </c>
+    <row r="645" spans="7:7">
       <c r="G645" s="2"/>
     </row>
-    <row r="646" spans="3:7">
+    <row r="646" spans="2:7">
+      <c r="B646">
+        <f>B640+1</f>
+        <v>122</v>
+      </c>
       <c r="C646" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D646">
-        <v>1104</v>
-      </c>
-      <c r="E646" s="5" t="s">
-        <v>38</v>
+        <f>D640+1</f>
+        <v>122</v>
+      </c>
+      <c r="E646" t="s">
+        <v>76</v>
       </c>
       <c r="G646" s="2"/>
     </row>
     <row r="647" spans="3:7">
       <c r="C647" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D647">
-        <v>1001</v>
+        <v>1</v>
+      </c>
+      <c r="E647" t="s">
+        <v>78</v>
       </c>
       <c r="G647" s="2"/>
     </row>
     <row r="648" spans="3:7">
       <c r="C648" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D648">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="E648" t="s">
+        <v>80</v>
       </c>
       <c r="G648" s="2"/>
     </row>
-    <row r="649" spans="2:7">
-      <c r="B649">
-        <v>152</v>
-      </c>
+    <row r="649" spans="3:7">
       <c r="C649" t="s">
-        <v>10</v>
-      </c>
-      <c r="D649">
-        <v>12</v>
-      </c>
-      <c r="E649" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D649" s="2">
+        <v>6601</v>
       </c>
       <c r="G649" s="2"/>
     </row>
     <row r="650" spans="3:7">
       <c r="C650" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D650">
-        <v>1107</v>
-      </c>
-      <c r="E650" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G650" s="2"/>
     </row>
-    <row r="651" spans="3:7">
-      <c r="C651" t="s">
-        <v>17</v>
-      </c>
-      <c r="D651">
-        <v>1001</v>
-      </c>
+    <row r="651" spans="7:7">
       <c r="G651" s="2"/>
     </row>
-    <row r="652" spans="3:7">
+    <row r="652" spans="2:7">
+      <c r="B652">
+        <f>B646+1</f>
+        <v>123</v>
+      </c>
       <c r="C652" t="s">
         <v>12</v>
       </c>
       <c r="D652">
-        <v>65</v>
+        <f>D646+1</f>
+        <v>123</v>
+      </c>
+      <c r="E652" t="s">
+        <v>76</v>
       </c>
       <c r="G652" s="2"/>
     </row>
-    <row r="653" spans="7:7">
+    <row r="653" spans="3:7">
+      <c r="C653" t="s">
+        <v>77</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653" t="s">
+        <v>78</v>
+      </c>
       <c r="G653" s="2"/>
     </row>
-    <row r="654" spans="2:7">
-      <c r="B654">
-        <v>153</v>
-      </c>
+    <row r="654" spans="3:7">
       <c r="C654" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D654">
-        <v>5200</v>
+        <v>30</v>
+      </c>
+      <c r="E654" t="s">
+        <v>80</v>
       </c>
       <c r="G654" s="2"/>
     </row>
     <row r="655" spans="3:7">
       <c r="C655" t="s">
-        <v>50</v>
-      </c>
-      <c r="D655">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D655" s="2">
+        <v>6601</v>
       </c>
       <c r="G655" s="2"/>
     </row>
     <row r="656" spans="3:7">
       <c r="C656" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D656">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G656" s="2"/>
     </row>
-    <row r="657" spans="3:7">
-      <c r="C657" t="s">
-        <v>75</v>
-      </c>
-      <c r="D657">
-        <v>1001</v>
-      </c>
+    <row r="657" spans="7:7">
       <c r="G657" s="2"/>
     </row>
-    <row r="658" spans="3:7">
+    <row r="658" spans="2:7">
+      <c r="B658">
+        <f>B652+1</f>
+        <v>124</v>
+      </c>
       <c r="C658" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D658">
-        <v>33</v>
+        <f>D652+1</f>
+        <v>124</v>
+      </c>
+      <c r="E658" t="s">
+        <v>76</v>
       </c>
       <c r="G658" s="2"/>
     </row>
-    <row r="659" spans="7:7">
+    <row r="659" spans="3:7">
+      <c r="C659" t="s">
+        <v>77</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659" t="s">
+        <v>78</v>
+      </c>
       <c r="G659" s="2"/>
     </row>
-    <row r="660" spans="7:7">
+    <row r="660" spans="3:7">
+      <c r="C660" t="s">
+        <v>79</v>
+      </c>
+      <c r="D660">
+        <v>30</v>
+      </c>
+      <c r="E660" t="s">
+        <v>80</v>
+      </c>
       <c r="G660" s="2"/>
     </row>
-    <row r="661" spans="7:7">
+    <row r="661" spans="3:7">
+      <c r="C661" t="s">
+        <v>11</v>
+      </c>
+      <c r="D661" s="2">
+        <v>6601</v>
+      </c>
       <c r="G661" s="2"/>
     </row>
-    <row r="662" spans="7:7">
+    <row r="662" spans="3:7">
+      <c r="C662" t="s">
+        <v>49</v>
+      </c>
+      <c r="D662">
+        <v>6</v>
+      </c>
       <c r="G662" s="2"/>
     </row>
     <row r="663" spans="7:7">
       <c r="G663" s="2"/>
     </row>
-    <row r="664" spans="7:7">
+    <row r="664" spans="2:7">
+      <c r="B664">
+        <f>B658+1</f>
+        <v>125</v>
+      </c>
+      <c r="C664" t="s">
+        <v>12</v>
+      </c>
+      <c r="D664">
+        <f>D658+1</f>
+        <v>125</v>
+      </c>
+      <c r="E664" t="s">
+        <v>76</v>
+      </c>
       <c r="G664" s="2"/>
     </row>
-    <row r="665" spans="7:7">
+    <row r="665" spans="3:7">
+      <c r="C665" t="s">
+        <v>77</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+      <c r="E665" t="s">
+        <v>78</v>
+      </c>
       <c r="G665" s="2"/>
     </row>
-    <row r="666" spans="7:7">
+    <row r="666" spans="3:7">
+      <c r="C666" t="s">
+        <v>79</v>
+      </c>
+      <c r="D666">
+        <v>30</v>
+      </c>
+      <c r="E666" t="s">
+        <v>80</v>
+      </c>
       <c r="G666" s="2"/>
     </row>
-    <row r="667" spans="7:7">
+    <row r="667" spans="3:7">
+      <c r="C667" t="s">
+        <v>11</v>
+      </c>
+      <c r="D667" s="2">
+        <v>6601</v>
+      </c>
       <c r="G667" s="2"/>
     </row>
-    <row r="668" spans="7:7">
+    <row r="668" spans="3:7">
+      <c r="C668" t="s">
+        <v>49</v>
+      </c>
+      <c r="D668">
+        <v>6</v>
+      </c>
       <c r="G668" s="2"/>
     </row>
     <row r="669" spans="7:7">
       <c r="G669" s="2"/>
     </row>
-    <row r="670" spans="7:7">
+    <row r="670" spans="2:7">
+      <c r="B670">
+        <f>B664+1</f>
+        <v>126</v>
+      </c>
+      <c r="C670" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670">
+        <f>D664+1</f>
+        <v>126</v>
+      </c>
+      <c r="E670" t="s">
+        <v>76</v>
+      </c>
       <c r="G670" s="2"/>
     </row>
-    <row r="671" spans="7:7">
+    <row r="671" spans="3:7">
+      <c r="C671" t="s">
+        <v>77</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671" t="s">
+        <v>78</v>
+      </c>
       <c r="G671" s="2"/>
     </row>
-    <row r="672" spans="7:7">
+    <row r="672" spans="3:7">
+      <c r="C672" t="s">
+        <v>79</v>
+      </c>
+      <c r="D672">
+        <v>30</v>
+      </c>
+      <c r="E672" t="s">
+        <v>80</v>
+      </c>
       <c r="G672" s="2"/>
     </row>
-    <row r="673" spans="7:7">
+    <row r="673" spans="3:7">
+      <c r="C673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D673" s="2">
+        <v>6601</v>
+      </c>
       <c r="G673" s="2"/>
     </row>
-    <row r="674" spans="7:7">
+    <row r="674" spans="3:7">
+      <c r="C674" t="s">
+        <v>49</v>
+      </c>
+      <c r="D674">
+        <v>6</v>
+      </c>
       <c r="G674" s="2"/>
     </row>
     <row r="675" spans="7:7">
       <c r="G675" s="2"/>
     </row>
-    <row r="676" spans="7:7">
+    <row r="676" spans="2:7">
+      <c r="B676">
+        <f>B670+1</f>
+        <v>127</v>
+      </c>
+      <c r="C676" t="s">
+        <v>12</v>
+      </c>
+      <c r="D676">
+        <f>D670+1</f>
+        <v>127</v>
+      </c>
+      <c r="E676" t="s">
+        <v>76</v>
+      </c>
       <c r="G676" s="2"/>
     </row>
-    <row r="677" spans="7:7">
+    <row r="677" spans="3:7">
+      <c r="C677" t="s">
+        <v>77</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677" t="s">
+        <v>78</v>
+      </c>
       <c r="G677" s="2"/>
     </row>
-    <row r="678" spans="7:7">
+    <row r="678" spans="3:7">
+      <c r="C678" t="s">
+        <v>79</v>
+      </c>
+      <c r="D678">
+        <v>30</v>
+      </c>
+      <c r="E678" t="s">
+        <v>80</v>
+      </c>
       <c r="G678" s="2"/>
     </row>
-    <row r="679" spans="7:7">
+    <row r="679" spans="3:7">
+      <c r="C679" t="s">
+        <v>11</v>
+      </c>
+      <c r="D679" s="2">
+        <v>6601</v>
+      </c>
       <c r="G679" s="2"/>
     </row>
-    <row r="680" spans="7:7">
+    <row r="680" spans="3:7">
+      <c r="C680" t="s">
+        <v>49</v>
+      </c>
+      <c r="D680">
+        <v>6</v>
+      </c>
       <c r="G680" s="2"/>
     </row>
     <row r="681" spans="7:7">
       <c r="G681" s="2"/>
     </row>
-    <row r="682" spans="7:7">
+    <row r="682" spans="2:7">
+      <c r="B682">
+        <f>B676+1</f>
+        <v>128</v>
+      </c>
+      <c r="C682" t="s">
+        <v>12</v>
+      </c>
+      <c r="D682">
+        <f>D676+1</f>
+        <v>128</v>
+      </c>
+      <c r="E682" t="s">
+        <v>76</v>
+      </c>
       <c r="G682" s="2"/>
     </row>
-    <row r="683" spans="7:7">
+    <row r="683" spans="3:7">
+      <c r="C683" t="s">
+        <v>77</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683" t="s">
+        <v>78</v>
+      </c>
       <c r="G683" s="2"/>
     </row>
-    <row r="684" spans="7:7">
+    <row r="684" spans="3:7">
+      <c r="C684" t="s">
+        <v>79</v>
+      </c>
+      <c r="D684">
+        <v>30</v>
+      </c>
+      <c r="E684" t="s">
+        <v>80</v>
+      </c>
       <c r="G684" s="2"/>
     </row>
-    <row r="685" spans="7:7">
+    <row r="685" spans="3:7">
+      <c r="C685" t="s">
+        <v>11</v>
+      </c>
+      <c r="D685" s="2">
+        <v>6601</v>
+      </c>
       <c r="G685" s="2"/>
     </row>
-    <row r="686" spans="7:7">
+    <row r="686" spans="3:7">
+      <c r="C686" t="s">
+        <v>49</v>
+      </c>
+      <c r="D686">
+        <v>6</v>
+      </c>
       <c r="G686" s="2"/>
     </row>
     <row r="687" spans="7:7">
       <c r="G687" s="2"/>
     </row>
-    <row r="688" spans="7:7">
+    <row r="688" spans="2:7">
+      <c r="B688">
+        <f>B682+1</f>
+        <v>129</v>
+      </c>
+      <c r="C688" t="s">
+        <v>12</v>
+      </c>
+      <c r="D688">
+        <f>D682+1</f>
+        <v>129</v>
+      </c>
+      <c r="E688" t="s">
+        <v>76</v>
+      </c>
       <c r="G688" s="2"/>
     </row>
-    <row r="689" spans="7:7">
+    <row r="689" spans="3:7">
+      <c r="C689" t="s">
+        <v>77</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689" t="s">
+        <v>78</v>
+      </c>
       <c r="G689" s="2"/>
     </row>
-    <row r="690" spans="7:7">
+    <row r="690" spans="3:7">
+      <c r="C690" t="s">
+        <v>79</v>
+      </c>
+      <c r="D690">
+        <v>30</v>
+      </c>
+      <c r="E690" t="s">
+        <v>80</v>
+      </c>
       <c r="G690" s="2"/>
     </row>
-    <row r="691" spans="7:7">
+    <row r="691" spans="3:7">
+      <c r="C691" t="s">
+        <v>11</v>
+      </c>
+      <c r="D691" s="2">
+        <v>6601</v>
+      </c>
       <c r="G691" s="2"/>
     </row>
-    <row r="692" spans="7:7">
+    <row r="692" spans="3:7">
+      <c r="C692" t="s">
+        <v>49</v>
+      </c>
+      <c r="D692">
+        <v>6</v>
+      </c>
       <c r="G692" s="2"/>
     </row>
     <row r="693" spans="7:7">
       <c r="G693" s="2"/>
     </row>
-    <row r="694" spans="7:7">
+    <row r="694" spans="2:7">
+      <c r="B694">
+        <f>B688+1</f>
+        <v>130</v>
+      </c>
+      <c r="C694" t="s">
+        <v>12</v>
+      </c>
+      <c r="D694">
+        <f>D688+1</f>
+        <v>130</v>
+      </c>
+      <c r="E694" t="s">
+        <v>76</v>
+      </c>
       <c r="G694" s="2"/>
     </row>
-    <row r="695" spans="7:7">
+    <row r="695" spans="3:7">
+      <c r="C695" t="s">
+        <v>77</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695" t="s">
+        <v>78</v>
+      </c>
       <c r="G695" s="2"/>
     </row>
-    <row r="696" spans="7:7">
+    <row r="696" spans="3:7">
+      <c r="C696" t="s">
+        <v>79</v>
+      </c>
+      <c r="D696">
+        <v>30</v>
+      </c>
+      <c r="E696" t="s">
+        <v>80</v>
+      </c>
       <c r="G696" s="2"/>
     </row>
-    <row r="697" spans="7:7">
+    <row r="697" spans="3:7">
+      <c r="C697" t="s">
+        <v>11</v>
+      </c>
+      <c r="D697" s="2">
+        <v>6601</v>
+      </c>
       <c r="G697" s="2"/>
     </row>
-    <row r="698" spans="7:7">
+    <row r="698" spans="3:7">
+      <c r="C698" t="s">
+        <v>49</v>
+      </c>
+      <c r="D698">
+        <v>6</v>
+      </c>
       <c r="G698" s="2"/>
     </row>
     <row r="699" spans="7:7">
       <c r="G699" s="2"/>
     </row>
-    <row r="700" spans="7:7">
+    <row r="700" spans="2:7">
+      <c r="B700">
+        <f>B694+1</f>
+        <v>131</v>
+      </c>
+      <c r="C700" t="s">
+        <v>12</v>
+      </c>
+      <c r="D700">
+        <f>D694+1</f>
+        <v>131</v>
+      </c>
+      <c r="E700" t="s">
+        <v>76</v>
+      </c>
       <c r="G700" s="2"/>
     </row>
-    <row r="701" spans="7:7">
+    <row r="701" spans="3:7">
+      <c r="C701" t="s">
+        <v>77</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701" t="s">
+        <v>78</v>
+      </c>
       <c r="G701" s="2"/>
     </row>
-    <row r="702" spans="7:7">
+    <row r="702" spans="3:7">
+      <c r="C702" t="s">
+        <v>79</v>
+      </c>
+      <c r="D702">
+        <v>30</v>
+      </c>
+      <c r="E702" t="s">
+        <v>80</v>
+      </c>
       <c r="G702" s="2"/>
     </row>
-    <row r="703" spans="7:7">
+    <row r="703" spans="3:7">
+      <c r="C703" t="s">
+        <v>11</v>
+      </c>
+      <c r="D703" s="2">
+        <v>6601</v>
+      </c>
       <c r="G703" s="2"/>
     </row>
-    <row r="704" spans="7:7">
+    <row r="704" spans="3:7">
+      <c r="C704" t="s">
+        <v>49</v>
+      </c>
+      <c r="D704">
+        <v>6</v>
+      </c>
       <c r="G704" s="2"/>
     </row>
     <row r="705" spans="7:7">
       <c r="G705" s="2"/>
     </row>
-    <row r="706" spans="7:7">
+    <row r="706" spans="2:7">
+      <c r="B706">
+        <f>B700+1</f>
+        <v>132</v>
+      </c>
+      <c r="C706" t="s">
+        <v>12</v>
+      </c>
+      <c r="D706">
+        <f>D700+1</f>
+        <v>132</v>
+      </c>
+      <c r="E706" t="s">
+        <v>76</v>
+      </c>
       <c r="G706" s="2"/>
     </row>
-    <row r="707" spans="7:7">
+    <row r="707" spans="3:7">
+      <c r="C707" t="s">
+        <v>77</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707" t="s">
+        <v>78</v>
+      </c>
       <c r="G707" s="2"/>
     </row>
-    <row r="708" spans="7:7">
+    <row r="708" spans="3:7">
+      <c r="C708" t="s">
+        <v>79</v>
+      </c>
+      <c r="D708">
+        <v>30</v>
+      </c>
+      <c r="E708" t="s">
+        <v>80</v>
+      </c>
       <c r="G708" s="2"/>
     </row>
-    <row r="709" spans="7:7">
+    <row r="709" spans="3:7">
+      <c r="C709" t="s">
+        <v>11</v>
+      </c>
+      <c r="D709" s="2">
+        <v>6601</v>
+      </c>
       <c r="G709" s="2"/>
     </row>
-    <row r="710" spans="7:7">
+    <row r="710" spans="3:7">
+      <c r="C710" t="s">
+        <v>49</v>
+      </c>
+      <c r="D710">
+        <v>6</v>
+      </c>
       <c r="G710" s="2"/>
     </row>
     <row r="711" spans="7:7">
       <c r="G711" s="2"/>
     </row>
-    <row r="712" spans="7:7">
+    <row r="712" spans="2:7">
+      <c r="B712">
+        <f>B706+1</f>
+        <v>133</v>
+      </c>
+      <c r="C712" t="s">
+        <v>12</v>
+      </c>
+      <c r="D712">
+        <f>D706+1</f>
+        <v>133</v>
+      </c>
+      <c r="E712" t="s">
+        <v>76</v>
+      </c>
       <c r="G712" s="2"/>
     </row>
-    <row r="713" spans="7:7">
+    <row r="713" spans="3:7">
+      <c r="C713" t="s">
+        <v>77</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713" t="s">
+        <v>78</v>
+      </c>
       <c r="G713" s="2"/>
     </row>
-    <row r="714" spans="7:7">
+    <row r="714" spans="3:7">
+      <c r="C714" t="s">
+        <v>79</v>
+      </c>
+      <c r="D714">
+        <v>30</v>
+      </c>
+      <c r="E714" t="s">
+        <v>80</v>
+      </c>
       <c r="G714" s="2"/>
     </row>
-    <row r="715" spans="7:7">
+    <row r="715" spans="3:7">
+      <c r="C715" t="s">
+        <v>11</v>
+      </c>
+      <c r="D715" s="2">
+        <v>6601</v>
+      </c>
       <c r="G715" s="2"/>
     </row>
-    <row r="716" spans="7:7">
+    <row r="716" spans="3:7">
+      <c r="C716" t="s">
+        <v>49</v>
+      </c>
+      <c r="D716">
+        <v>6</v>
+      </c>
       <c r="G716" s="2"/>
     </row>
     <row r="717" spans="7:7">
       <c r="G717" s="2"/>
     </row>
-    <row r="718" spans="7:7">
+    <row r="718" spans="2:7">
+      <c r="B718">
+        <f>B712+1</f>
+        <v>134</v>
+      </c>
+      <c r="C718" t="s">
+        <v>12</v>
+      </c>
+      <c r="D718">
+        <f>D712+1</f>
+        <v>134</v>
+      </c>
+      <c r="E718" t="s">
+        <v>76</v>
+      </c>
       <c r="G718" s="2"/>
     </row>
-    <row r="719" spans="7:7">
+    <row r="719" spans="3:7">
+      <c r="C719" t="s">
+        <v>77</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719" t="s">
+        <v>78</v>
+      </c>
       <c r="G719" s="2"/>
     </row>
-    <row r="720" spans="7:7">
+    <row r="720" spans="3:7">
+      <c r="C720" t="s">
+        <v>79</v>
+      </c>
+      <c r="D720">
+        <v>30</v>
+      </c>
+      <c r="E720" t="s">
+        <v>80</v>
+      </c>
       <c r="G720" s="2"/>
     </row>
-    <row r="721" spans="7:7">
+    <row r="721" spans="3:7">
+      <c r="C721" t="s">
+        <v>11</v>
+      </c>
+      <c r="D721" s="2">
+        <v>6601</v>
+      </c>
       <c r="G721" s="2"/>
     </row>
-    <row r="722" spans="7:7">
+    <row r="722" spans="3:7">
+      <c r="C722" t="s">
+        <v>49</v>
+      </c>
+      <c r="D722">
+        <v>6</v>
+      </c>
       <c r="G722" s="2"/>
     </row>
     <row r="723" spans="7:7">
       <c r="G723" s="2"/>
     </row>
-    <row r="724" spans="7:7">
+    <row r="724" spans="2:7">
+      <c r="B724">
+        <f>B718+1</f>
+        <v>135</v>
+      </c>
+      <c r="C724" t="s">
+        <v>12</v>
+      </c>
+      <c r="D724">
+        <f>D718+1</f>
+        <v>135</v>
+      </c>
+      <c r="E724" t="s">
+        <v>76</v>
+      </c>
       <c r="G724" s="2"/>
     </row>
-    <row r="725" spans="7:7">
+    <row r="725" spans="3:7">
+      <c r="C725" t="s">
+        <v>77</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+      <c r="E725" t="s">
+        <v>78</v>
+      </c>
       <c r="G725" s="2"/>
     </row>
-    <row r="726" spans="7:7">
+    <row r="726" spans="3:7">
+      <c r="C726" t="s">
+        <v>79</v>
+      </c>
+      <c r="D726">
+        <v>30</v>
+      </c>
+      <c r="E726" t="s">
+        <v>80</v>
+      </c>
       <c r="G726" s="2"/>
     </row>
-    <row r="727" spans="7:7">
+    <row r="727" spans="3:7">
+      <c r="C727" t="s">
+        <v>11</v>
+      </c>
+      <c r="D727" s="2">
+        <v>6601</v>
+      </c>
       <c r="G727" s="2"/>
     </row>
-    <row r="728" spans="7:7">
+    <row r="728" spans="3:7">
+      <c r="C728" t="s">
+        <v>49</v>
+      </c>
+      <c r="D728">
+        <v>6</v>
+      </c>
       <c r="G728" s="2"/>
     </row>
     <row r="729" spans="7:7">
       <c r="G729" s="2"/>
     </row>
-    <row r="730" spans="7:7">
+    <row r="730" spans="2:7">
+      <c r="B730">
+        <f>B724+1</f>
+        <v>136</v>
+      </c>
+      <c r="C730" t="s">
+        <v>12</v>
+      </c>
+      <c r="D730">
+        <f>D724+1</f>
+        <v>136</v>
+      </c>
+      <c r="E730" t="s">
+        <v>76</v>
+      </c>
       <c r="G730" s="2"/>
     </row>
-    <row r="731" spans="7:7">
+    <row r="731" spans="3:7">
+      <c r="C731" t="s">
+        <v>77</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731" t="s">
+        <v>78</v>
+      </c>
       <c r="G731" s="2"/>
     </row>
-    <row r="732" spans="7:7">
+    <row r="732" spans="3:7">
+      <c r="C732" t="s">
+        <v>79</v>
+      </c>
+      <c r="D732">
+        <v>30</v>
+      </c>
+      <c r="E732" t="s">
+        <v>80</v>
+      </c>
       <c r="G732" s="2"/>
     </row>
-    <row r="733" spans="7:7">
+    <row r="733" spans="3:7">
+      <c r="C733" t="s">
+        <v>11</v>
+      </c>
+      <c r="D733" s="2">
+        <v>6601</v>
+      </c>
       <c r="G733" s="2"/>
     </row>
-    <row r="734" spans="7:7">
+    <row r="734" spans="3:7">
+      <c r="C734" t="s">
+        <v>49</v>
+      </c>
+      <c r="D734">
+        <v>6</v>
+      </c>
       <c r="G734" s="2"/>
     </row>
     <row r="735" spans="7:7">
       <c r="G735" s="2"/>
     </row>
-    <row r="736" spans="7:7">
+    <row r="736" spans="2:7">
+      <c r="B736">
+        <f>B730+1</f>
+        <v>137</v>
+      </c>
+      <c r="C736" t="s">
+        <v>12</v>
+      </c>
+      <c r="D736">
+        <f>D730+1</f>
+        <v>137</v>
+      </c>
+      <c r="E736" t="s">
+        <v>76</v>
+      </c>
       <c r="G736" s="2"/>
     </row>
-    <row r="737" spans="7:7">
+    <row r="737" spans="3:7">
+      <c r="C737" t="s">
+        <v>77</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737" t="s">
+        <v>78</v>
+      </c>
       <c r="G737" s="2"/>
     </row>
-    <row r="738" spans="7:7">
+    <row r="738" spans="3:7">
+      <c r="C738" t="s">
+        <v>79</v>
+      </c>
+      <c r="D738">
+        <v>30</v>
+      </c>
+      <c r="E738" t="s">
+        <v>80</v>
+      </c>
       <c r="G738" s="2"/>
     </row>
-    <row r="739" spans="7:7">
+    <row r="739" spans="3:7">
+      <c r="C739" t="s">
+        <v>11</v>
+      </c>
+      <c r="D739" s="2">
+        <v>6601</v>
+      </c>
       <c r="G739" s="2"/>
     </row>
-    <row r="740" spans="7:7">
+    <row r="740" spans="3:7">
+      <c r="C740" t="s">
+        <v>49</v>
+      </c>
+      <c r="D740">
+        <v>6</v>
+      </c>
       <c r="G740" s="2"/>
     </row>
     <row r="741" spans="7:7">
       <c r="G741" s="2"/>
     </row>
-    <row r="742" spans="7:7">
+    <row r="742" spans="2:7">
+      <c r="B742">
+        <f>B736+1</f>
+        <v>138</v>
+      </c>
+      <c r="C742" t="s">
+        <v>12</v>
+      </c>
+      <c r="D742">
+        <f>D736+1</f>
+        <v>138</v>
+      </c>
+      <c r="E742" t="s">
+        <v>76</v>
+      </c>
       <c r="G742" s="2"/>
     </row>
-    <row r="743" spans="7:7">
+    <row r="743" spans="3:7">
+      <c r="C743" t="s">
+        <v>77</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
+      </c>
+      <c r="E743" t="s">
+        <v>78</v>
+      </c>
       <c r="G743" s="2"/>
     </row>
-    <row r="744" spans="7:7">
+    <row r="744" spans="3:7">
+      <c r="C744" t="s">
+        <v>79</v>
+      </c>
+      <c r="D744">
+        <v>30</v>
+      </c>
+      <c r="E744" t="s">
+        <v>80</v>
+      </c>
       <c r="G744" s="2"/>
     </row>
-    <row r="745" spans="7:7">
+    <row r="745" spans="3:7">
+      <c r="C745" t="s">
+        <v>11</v>
+      </c>
+      <c r="D745" s="2">
+        <v>6601</v>
+      </c>
       <c r="G745" s="2"/>
     </row>
-    <row r="746" spans="7:7">
+    <row r="746" spans="3:7">
+      <c r="C746" t="s">
+        <v>49</v>
+      </c>
+      <c r="D746">
+        <v>6</v>
+      </c>
       <c r="G746" s="2"/>
     </row>
     <row r="747" spans="7:7">
       <c r="G747" s="2"/>
     </row>
-    <row r="748" spans="7:7">
+    <row r="748" spans="2:7">
+      <c r="B748">
+        <f>B742+1</f>
+        <v>139</v>
+      </c>
+      <c r="C748" t="s">
+        <v>12</v>
+      </c>
+      <c r="D748">
+        <f>D742+1</f>
+        <v>139</v>
+      </c>
+      <c r="E748" t="s">
+        <v>76</v>
+      </c>
       <c r="G748" s="2"/>
     </row>
-    <row r="749" spans="7:7">
+    <row r="749" spans="3:7">
+      <c r="C749" t="s">
+        <v>77</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749" t="s">
+        <v>78</v>
+      </c>
       <c r="G749" s="2"/>
     </row>
-    <row r="750" spans="7:7">
+    <row r="750" spans="3:7">
+      <c r="C750" t="s">
+        <v>79</v>
+      </c>
+      <c r="D750">
+        <v>30</v>
+      </c>
+      <c r="E750" t="s">
+        <v>80</v>
+      </c>
       <c r="G750" s="2"/>
     </row>
-    <row r="751" spans="7:7">
+    <row r="751" spans="3:7">
+      <c r="C751" t="s">
+        <v>11</v>
+      </c>
+      <c r="D751" s="2">
+        <v>6601</v>
+      </c>
       <c r="G751" s="2"/>
     </row>
-    <row r="752" spans="7:7">
+    <row r="752" spans="3:7">
+      <c r="C752" t="s">
+        <v>49</v>
+      </c>
+      <c r="D752">
+        <v>6</v>
+      </c>
       <c r="G752" s="2"/>
     </row>
     <row r="753" spans="7:7">
       <c r="G753" s="2"/>
     </row>
-    <row r="754" spans="7:7">
+    <row r="754" spans="2:7">
+      <c r="B754">
+        <f>B748+1</f>
+        <v>140</v>
+      </c>
+      <c r="C754" t="s">
+        <v>10</v>
+      </c>
+      <c r="D754">
+        <v>42</v>
+      </c>
+      <c r="E754" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G754" s="2"/>
     </row>
-    <row r="755" spans="7:7">
+    <row r="755" spans="3:7">
+      <c r="C755" t="s">
+        <v>11</v>
+      </c>
+      <c r="D755">
+        <v>2468</v>
+      </c>
+      <c r="E755" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="G755" s="2"/>
+    </row>
+    <row r="756" spans="3:7">
+      <c r="C756" t="s">
+        <v>12</v>
+      </c>
+      <c r="D756">
+        <v>140</v>
+      </c>
+      <c r="G756" s="2"/>
+    </row>
+    <row r="757" spans="3:7">
+      <c r="C757" t="s">
+        <v>17</v>
+      </c>
+      <c r="D757">
+        <v>1001</v>
+      </c>
+      <c r="G757" s="2"/>
+    </row>
+    <row r="758" spans="3:7">
+      <c r="C758" t="s">
+        <v>84</v>
+      </c>
+      <c r="D758">
+        <v>4</v>
+      </c>
+      <c r="E758" t="s">
+        <v>85</v>
+      </c>
+      <c r="G758" s="2"/>
+    </row>
+    <row r="759" spans="7:7">
+      <c r="G759" s="2"/>
+    </row>
+    <row r="760" spans="2:7">
+      <c r="B760">
+        <f>B754+1</f>
+        <v>141</v>
+      </c>
+      <c r="C760" t="s">
+        <v>10</v>
+      </c>
+      <c r="D760">
+        <v>42</v>
+      </c>
+      <c r="E760" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G760" s="2"/>
+    </row>
+    <row r="761" spans="3:7">
+      <c r="C761" t="s">
+        <v>11</v>
+      </c>
+      <c r="D761">
+        <v>2468</v>
+      </c>
+      <c r="E761" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G761" s="2"/>
+    </row>
+    <row r="762" spans="3:7">
+      <c r="C762" t="s">
+        <v>12</v>
+      </c>
+      <c r="D762">
+        <f>D756+1</f>
+        <v>141</v>
+      </c>
+      <c r="G762" s="2"/>
+    </row>
+    <row r="763" spans="3:7">
+      <c r="C763" t="s">
+        <v>17</v>
+      </c>
+      <c r="D763">
+        <v>1001</v>
+      </c>
+      <c r="G763" s="2"/>
+    </row>
+    <row r="764" spans="3:7">
+      <c r="C764" t="s">
+        <v>84</v>
+      </c>
+      <c r="D764">
+        <v>4</v>
+      </c>
+      <c r="E764" t="s">
+        <v>85</v>
+      </c>
+      <c r="G764" s="2"/>
+    </row>
+    <row r="765" spans="7:7">
+      <c r="G765" s="2"/>
+    </row>
+    <row r="766" spans="2:7">
+      <c r="B766">
+        <f>B760+1</f>
+        <v>142</v>
+      </c>
+      <c r="C766" t="s">
+        <v>10</v>
+      </c>
+      <c r="D766">
+        <v>42</v>
+      </c>
+      <c r="E766" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G766" s="2"/>
+    </row>
+    <row r="767" spans="3:7">
+      <c r="C767" t="s">
+        <v>11</v>
+      </c>
+      <c r="D767">
+        <v>2468</v>
+      </c>
+      <c r="E767" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G767" s="2"/>
+    </row>
+    <row r="768" spans="3:7">
+      <c r="C768" t="s">
+        <v>12</v>
+      </c>
+      <c r="D768">
+        <f>D762+1</f>
+        <v>142</v>
+      </c>
+      <c r="G768" s="2"/>
+    </row>
+    <row r="769" spans="3:7">
+      <c r="C769" t="s">
+        <v>17</v>
+      </c>
+      <c r="D769">
+        <v>1001</v>
+      </c>
+      <c r="G769" s="2"/>
+    </row>
+    <row r="770" spans="3:7">
+      <c r="C770" t="s">
+        <v>84</v>
+      </c>
+      <c r="D770">
+        <v>4</v>
+      </c>
+      <c r="E770" t="s">
+        <v>85</v>
+      </c>
+      <c r="G770" s="2"/>
+    </row>
+    <row r="771" spans="7:7">
+      <c r="G771" s="2"/>
+    </row>
+    <row r="772" spans="2:7">
+      <c r="B772">
+        <f>B766+1</f>
+        <v>143</v>
+      </c>
+      <c r="C772" t="s">
+        <v>10</v>
+      </c>
+      <c r="D772">
+        <v>43</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G772" s="2"/>
+    </row>
+    <row r="773" spans="3:7">
+      <c r="C773" t="s">
+        <v>11</v>
+      </c>
+      <c r="D773">
+        <v>2468</v>
+      </c>
+      <c r="E773" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G773" s="2"/>
+    </row>
+    <row r="774" spans="3:7">
+      <c r="C774" t="s">
+        <v>12</v>
+      </c>
+      <c r="D774">
+        <f>D768+1</f>
+        <v>143</v>
+      </c>
+      <c r="G774" s="2"/>
+    </row>
+    <row r="775" spans="3:7">
+      <c r="C775" t="s">
+        <v>17</v>
+      </c>
+      <c r="D775">
+        <v>1001</v>
+      </c>
+      <c r="G775" s="2"/>
+    </row>
+    <row r="776" spans="3:7">
+      <c r="C776" t="s">
+        <v>84</v>
+      </c>
+      <c r="D776">
+        <v>6</v>
+      </c>
+      <c r="E776" t="s">
+        <v>87</v>
+      </c>
+      <c r="G776" s="2"/>
+    </row>
+    <row r="777" spans="7:7">
+      <c r="G777" s="2"/>
+    </row>
+    <row r="778" spans="2:7">
+      <c r="B778">
+        <f>B772+1</f>
+        <v>144</v>
+      </c>
+      <c r="C778" t="s">
+        <v>10</v>
+      </c>
+      <c r="D778">
+        <v>43</v>
+      </c>
+      <c r="E778" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G778" s="2"/>
+    </row>
+    <row r="779" spans="3:7">
+      <c r="C779" t="s">
+        <v>11</v>
+      </c>
+      <c r="D779">
+        <v>2468</v>
+      </c>
+      <c r="E779" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G779" s="2"/>
+    </row>
+    <row r="780" spans="3:7">
+      <c r="C780" t="s">
+        <v>12</v>
+      </c>
+      <c r="D780">
+        <f>D774+1</f>
+        <v>144</v>
+      </c>
+      <c r="G780" s="2"/>
+    </row>
+    <row r="781" spans="3:7">
+      <c r="C781" t="s">
+        <v>17</v>
+      </c>
+      <c r="D781">
+        <v>1001</v>
+      </c>
+      <c r="G781" s="2"/>
+    </row>
+    <row r="782" spans="3:7">
+      <c r="C782" t="s">
+        <v>84</v>
+      </c>
+      <c r="D782">
+        <v>6</v>
+      </c>
+      <c r="E782" t="s">
+        <v>87</v>
+      </c>
+      <c r="G782" s="2"/>
+    </row>
+    <row r="783" spans="7:7">
+      <c r="G783" s="2"/>
+    </row>
+    <row r="784" spans="2:7">
+      <c r="B784">
+        <f>B778+1</f>
+        <v>145</v>
+      </c>
+      <c r="C784" t="s">
+        <v>10</v>
+      </c>
+      <c r="D784">
+        <v>43</v>
+      </c>
+      <c r="E784" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G784" s="2"/>
+    </row>
+    <row r="785" spans="3:7">
+      <c r="C785" t="s">
+        <v>11</v>
+      </c>
+      <c r="D785">
+        <v>2468</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G785" s="2"/>
+    </row>
+    <row r="786" spans="3:7">
+      <c r="C786" t="s">
+        <v>12</v>
+      </c>
+      <c r="D786">
+        <f>D780+1</f>
+        <v>145</v>
+      </c>
+      <c r="G786" s="2"/>
+    </row>
+    <row r="787" spans="3:7">
+      <c r="C787" t="s">
+        <v>17</v>
+      </c>
+      <c r="D787">
+        <v>1001</v>
+      </c>
+      <c r="G787" s="2"/>
+    </row>
+    <row r="788" spans="3:7">
+      <c r="C788" t="s">
+        <v>84</v>
+      </c>
+      <c r="D788">
+        <v>6</v>
+      </c>
+      <c r="E788" t="s">
+        <v>87</v>
+      </c>
+      <c r="G788" s="2"/>
+    </row>
+    <row r="789" spans="7:7">
+      <c r="G789" s="2"/>
+    </row>
+    <row r="790" spans="2:7">
+      <c r="B790">
+        <f>B784+1</f>
+        <v>146</v>
+      </c>
+      <c r="C790" t="s">
+        <v>10</v>
+      </c>
+      <c r="D790">
+        <v>43</v>
+      </c>
+      <c r="E790" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G790" s="2"/>
+    </row>
+    <row r="791" spans="3:7">
+      <c r="C791" t="s">
+        <v>11</v>
+      </c>
+      <c r="D791">
+        <v>2468</v>
+      </c>
+      <c r="E791" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G791" s="2"/>
+    </row>
+    <row r="792" spans="3:7">
+      <c r="C792" t="s">
+        <v>12</v>
+      </c>
+      <c r="D792">
+        <f>D786+1</f>
+        <v>146</v>
+      </c>
+      <c r="G792" s="2"/>
+    </row>
+    <row r="793" spans="3:7">
+      <c r="C793" t="s">
+        <v>17</v>
+      </c>
+      <c r="D793">
+        <v>1001</v>
+      </c>
+      <c r="G793" s="2"/>
+    </row>
+    <row r="794" spans="3:7">
+      <c r="C794" t="s">
+        <v>84</v>
+      </c>
+      <c r="D794">
+        <v>6</v>
+      </c>
+      <c r="E794" t="s">
+        <v>87</v>
+      </c>
+      <c r="G794" s="2"/>
+    </row>
+    <row r="795" spans="7:7">
+      <c r="G795" s="2"/>
+    </row>
+    <row r="796" spans="2:7">
+      <c r="B796">
+        <f>B790+1</f>
+        <v>147</v>
+      </c>
+      <c r="C796" t="s">
+        <v>10</v>
+      </c>
+      <c r="D796">
+        <v>40</v>
+      </c>
+      <c r="E796" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G796" s="2"/>
+    </row>
+    <row r="797" spans="3:7">
+      <c r="C797" t="s">
+        <v>11</v>
+      </c>
+      <c r="D797">
+        <v>2468</v>
+      </c>
+      <c r="E797" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G797" s="2"/>
+    </row>
+    <row r="798" spans="3:7">
+      <c r="C798" t="s">
+        <v>12</v>
+      </c>
+      <c r="D798">
+        <f>D792+1</f>
+        <v>147</v>
+      </c>
+      <c r="G798" s="2"/>
+    </row>
+    <row r="799" spans="3:7">
+      <c r="C799" t="s">
+        <v>17</v>
+      </c>
+      <c r="D799">
+        <v>1001</v>
+      </c>
+      <c r="G799" s="2"/>
+    </row>
+    <row r="800" spans="3:7">
+      <c r="C800" t="s">
+        <v>84</v>
+      </c>
+      <c r="D800">
+        <v>8</v>
+      </c>
+      <c r="E800" t="s">
+        <v>89</v>
+      </c>
+      <c r="G800" s="2"/>
+    </row>
+    <row r="801" spans="7:7">
+      <c r="G801" s="2"/>
+    </row>
+    <row r="802" spans="2:7">
+      <c r="B802">
+        <f>B796+1</f>
+        <v>148</v>
+      </c>
+      <c r="C802" t="s">
+        <v>10</v>
+      </c>
+      <c r="D802">
+        <v>40</v>
+      </c>
+      <c r="E802" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G802" s="2"/>
+    </row>
+    <row r="803" spans="3:7">
+      <c r="C803" t="s">
+        <v>11</v>
+      </c>
+      <c r="D803">
+        <v>2468</v>
+      </c>
+      <c r="E803" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G803" s="2"/>
+    </row>
+    <row r="804" spans="3:7">
+      <c r="C804" t="s">
+        <v>12</v>
+      </c>
+      <c r="D804">
+        <f>D798+1</f>
+        <v>148</v>
+      </c>
+      <c r="G804" s="2"/>
+    </row>
+    <row r="805" spans="3:7">
+      <c r="C805" t="s">
+        <v>17</v>
+      </c>
+      <c r="D805">
+        <v>1001</v>
+      </c>
+      <c r="G805" s="2"/>
+    </row>
+    <row r="806" spans="3:7">
+      <c r="C806" t="s">
+        <v>84</v>
+      </c>
+      <c r="D806">
+        <v>8</v>
+      </c>
+      <c r="E806" t="s">
+        <v>89</v>
+      </c>
+      <c r="G806" s="2"/>
+    </row>
+    <row r="807" spans="7:7">
+      <c r="G807" s="2"/>
+    </row>
+    <row r="808" spans="2:7">
+      <c r="B808">
+        <f>B802+1</f>
+        <v>149</v>
+      </c>
+      <c r="C808" t="s">
+        <v>10</v>
+      </c>
+      <c r="D808">
+        <v>41</v>
+      </c>
+      <c r="E808" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G808" s="2"/>
+    </row>
+    <row r="809" spans="3:7">
+      <c r="C809" t="s">
+        <v>11</v>
+      </c>
+      <c r="D809">
+        <v>2468</v>
+      </c>
+      <c r="E809" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G809" s="2"/>
+    </row>
+    <row r="810" spans="3:7">
+      <c r="C810" t="s">
+        <v>12</v>
+      </c>
+      <c r="D810">
+        <f>D804+1</f>
+        <v>149</v>
+      </c>
+      <c r="G810" s="2"/>
+    </row>
+    <row r="811" spans="3:7">
+      <c r="C811" t="s">
+        <v>17</v>
+      </c>
+      <c r="D811">
+        <v>1001</v>
+      </c>
+      <c r="G811" s="2"/>
+    </row>
+    <row r="812" spans="3:7">
+      <c r="C812" t="s">
+        <v>84</v>
+      </c>
+      <c r="D812">
+        <v>2</v>
+      </c>
+      <c r="E812" t="s">
+        <v>91</v>
+      </c>
+      <c r="G812" s="2"/>
+    </row>
+    <row r="813" spans="7:7">
+      <c r="G813" s="2"/>
+    </row>
+    <row r="814" spans="2:7">
+      <c r="B814">
+        <v>150</v>
+      </c>
+      <c r="C814" t="s">
+        <v>10</v>
+      </c>
+      <c r="D814">
+        <v>19</v>
+      </c>
+      <c r="E814" t="s">
+        <v>41</v>
+      </c>
+      <c r="G814" s="2"/>
+    </row>
+    <row r="815" spans="3:7">
+      <c r="C815" t="s">
+        <v>11</v>
+      </c>
+      <c r="D815">
+        <v>1105</v>
+      </c>
+      <c r="E815" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G815" s="2"/>
+    </row>
+    <row r="816" spans="3:7">
+      <c r="C816" t="s">
+        <v>12</v>
+      </c>
+      <c r="D816">
+        <v>65</v>
+      </c>
+      <c r="G816" s="2"/>
+    </row>
+    <row r="817" spans="3:7">
+      <c r="C817" t="s">
+        <v>17</v>
+      </c>
+      <c r="D817">
+        <v>1001</v>
+      </c>
+      <c r="G817" s="2"/>
+    </row>
+    <row r="818" spans="7:7">
+      <c r="G818" s="2"/>
+    </row>
+    <row r="819" spans="2:7">
+      <c r="B819">
+        <v>151</v>
+      </c>
+      <c r="C819" t="s">
+        <v>12</v>
+      </c>
+      <c r="D819">
+        <v>153</v>
+      </c>
+      <c r="E819" t="s">
+        <v>76</v>
+      </c>
+      <c r="G819" s="2"/>
+    </row>
+    <row r="820" spans="3:7">
+      <c r="C820" t="s">
+        <v>77</v>
+      </c>
+      <c r="D820">
+        <v>1</v>
+      </c>
+      <c r="E820" t="s">
+        <v>78</v>
+      </c>
+      <c r="G820" s="2"/>
+    </row>
+    <row r="821" spans="3:7">
+      <c r="C821" t="s">
+        <v>79</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+      <c r="E821" t="s">
+        <v>80</v>
+      </c>
+      <c r="G821" s="2"/>
+    </row>
+    <row r="822" spans="3:7">
+      <c r="C822" t="s">
+        <v>11</v>
+      </c>
+      <c r="D822" s="2">
+        <v>6602</v>
+      </c>
+      <c r="G822" s="2"/>
+    </row>
+    <row r="823" spans="3:7">
+      <c r="C823" t="s">
+        <v>49</v>
+      </c>
+      <c r="D823">
+        <v>6</v>
+      </c>
+      <c r="G823" s="2"/>
+    </row>
+    <row r="824" spans="7:7">
+      <c r="G824" s="2"/>
+    </row>
+    <row r="825" spans="7:7">
+      <c r="G825" s="2"/>
+    </row>
+    <row r="826" spans="2:7">
+      <c r="B826">
+        <v>152</v>
+      </c>
+      <c r="C826" t="s">
+        <v>10</v>
+      </c>
+      <c r="D826">
+        <v>16</v>
+      </c>
+      <c r="E826" t="s">
+        <v>43</v>
+      </c>
+      <c r="G826" s="2"/>
+    </row>
+    <row r="827" spans="3:7">
+      <c r="C827" t="s">
+        <v>11</v>
+      </c>
+      <c r="D827">
+        <v>1107</v>
+      </c>
+      <c r="E827" t="s">
+        <v>44</v>
+      </c>
+      <c r="G827" s="2"/>
+    </row>
+    <row r="828" spans="3:7">
+      <c r="C828" t="s">
+        <v>12</v>
+      </c>
+      <c r="D828">
+        <v>55</v>
+      </c>
+      <c r="G828" s="2"/>
+    </row>
+    <row r="829" spans="3:7">
+      <c r="C829" t="s">
+        <v>17</v>
+      </c>
+      <c r="D829">
+        <v>1001</v>
+      </c>
+      <c r="G829" s="2"/>
+    </row>
+    <row r="830" spans="7:7">
+      <c r="G830" s="2"/>
+    </row>
+    <row r="831" spans="7:7">
+      <c r="G831" s="2"/>
+    </row>
+    <row r="832" spans="7:7">
+      <c r="G832" s="2"/>
+    </row>
+    <row r="833" spans="7:7">
+      <c r="G833" s="2"/>
+    </row>
+    <row r="834" spans="7:7">
+      <c r="G834" s="2"/>
+    </row>
+    <row r="835" spans="7:7">
+      <c r="G835" s="2"/>
+    </row>
+    <row r="836" spans="7:7">
+      <c r="G836" s="2"/>
+    </row>
+    <row r="837" spans="7:7">
+      <c r="G837" s="2"/>
+    </row>
+    <row r="838" spans="7:7">
+      <c r="G838" s="2"/>
+    </row>
+    <row r="839" spans="7:7">
+      <c r="G839" s="2"/>
+    </row>
+    <row r="840" spans="7:7">
+      <c r="G840" s="2"/>
+    </row>
+    <row r="841" spans="7:7">
+      <c r="G841" s="2"/>
+    </row>
+    <row r="842" spans="7:7">
+      <c r="G842" s="2"/>
+    </row>
+    <row r="843" spans="7:7">
+      <c r="G843" s="2"/>
+    </row>
+    <row r="844" spans="7:7">
+      <c r="G844" s="2"/>
+    </row>
+    <row r="845" spans="7:7">
+      <c r="G845" s="2"/>
+    </row>
+    <row r="846" spans="7:7">
+      <c r="G846" s="2"/>
+    </row>
+    <row r="847" spans="7:7">
+      <c r="G847" s="2"/>
+    </row>
+    <row r="848" spans="7:7">
+      <c r="G848" s="2"/>
+    </row>
+    <row r="849" spans="7:7">
+      <c r="G849" s="2"/>
+    </row>
+    <row r="850" spans="7:7">
+      <c r="G850" s="2"/>
+    </row>
+    <row r="851" spans="7:7">
+      <c r="G851" s="2"/>
+    </row>
+    <row r="852" spans="7:7">
+      <c r="G852" s="2"/>
+    </row>
+    <row r="853" spans="7:7">
+      <c r="G853" s="2"/>
+    </row>
+    <row r="854" spans="7:7">
+      <c r="G854" s="2"/>
+    </row>
+    <row r="855" spans="7:7">
+      <c r="G855" s="2"/>
+    </row>
+    <row r="856" spans="7:7">
+      <c r="G856" s="2"/>
+    </row>
+    <row r="857" spans="7:7">
+      <c r="G857" s="2"/>
+    </row>
+    <row r="858" spans="7:7">
+      <c r="G858" s="2"/>
+    </row>
+    <row r="859" spans="7:7">
+      <c r="G859" s="2"/>
+    </row>
+    <row r="860" spans="7:7">
+      <c r="G860" s="2"/>
+    </row>
+    <row r="861" spans="7:7">
+      <c r="G861" s="2"/>
+    </row>
+    <row r="862" spans="7:7">
+      <c r="G862" s="2"/>
+    </row>
+    <row r="863" spans="7:7">
+      <c r="G863" s="2"/>
+    </row>
+    <row r="864" spans="7:7">
+      <c r="G864" s="2"/>
+    </row>
+    <row r="865" spans="7:7">
+      <c r="G865" s="2"/>
+    </row>
+    <row r="866" spans="7:7">
+      <c r="G866" s="2"/>
+    </row>
+    <row r="867" spans="7:7">
+      <c r="G867" s="2"/>
+    </row>
+    <row r="868" spans="7:7">
+      <c r="G868" s="2"/>
+    </row>
+    <row r="869" spans="7:7">
+      <c r="G869" s="2"/>
+    </row>
+    <row r="870" spans="7:7">
+      <c r="G870" s="2"/>
+    </row>
+    <row r="871" spans="7:7">
+      <c r="G871" s="2"/>
+    </row>
+    <row r="872" spans="7:7">
+      <c r="G872" s="2"/>
+    </row>
+    <row r="873" spans="7:7">
+      <c r="G873" s="2"/>
+    </row>
+    <row r="874" spans="7:7">
+      <c r="G874" s="2"/>
+    </row>
+    <row r="875" spans="7:7">
+      <c r="G875" s="2"/>
+    </row>
+    <row r="876" spans="7:7">
+      <c r="G876" s="2"/>
+    </row>
+    <row r="877" spans="7:7">
+      <c r="G877" s="2"/>
+    </row>
+    <row r="878" spans="7:7">
+      <c r="G878" s="2"/>
+    </row>
+    <row r="879" spans="7:7">
+      <c r="G879" s="2"/>
+    </row>
+    <row r="880" spans="7:7">
+      <c r="G880" s="2"/>
+    </row>
+    <row r="881" spans="7:7">
+      <c r="G881" s="2"/>
+    </row>
+    <row r="882" spans="7:7">
+      <c r="G882" s="2"/>
+    </row>
+    <row r="883" spans="7:7">
+      <c r="G883" s="2"/>
+    </row>
+    <row r="884" spans="7:7">
+      <c r="G884" s="2"/>
+    </row>
+    <row r="885" spans="7:7">
+      <c r="G885" s="2"/>
+    </row>
+    <row r="886" spans="7:7">
+      <c r="G886" s="2"/>
+    </row>
+    <row r="887" spans="7:7">
+      <c r="G887" s="2"/>
+    </row>
+    <row r="888" spans="7:7">
+      <c r="G888" s="2"/>
+    </row>
+    <row r="889" spans="7:7">
+      <c r="G889" s="2"/>
+    </row>
+    <row r="890" spans="7:7">
+      <c r="G890" s="2"/>
+    </row>
+    <row r="891" spans="7:7">
+      <c r="G891" s="2"/>
+    </row>
+    <row r="892" spans="7:7">
+      <c r="G892" s="2"/>
+    </row>
+    <row r="893" spans="7:7">
+      <c r="G893" s="2"/>
+    </row>
+    <row r="894" spans="7:7">
+      <c r="G894" s="2"/>
+    </row>
+    <row r="895" spans="7:7">
+      <c r="G895" s="2"/>
+    </row>
+    <row r="896" spans="7:7">
+      <c r="G896" s="2"/>
+    </row>
+    <row r="897" spans="7:7">
+      <c r="G897" s="2"/>
+    </row>
+    <row r="898" spans="7:7">
+      <c r="G898" s="2"/>
+    </row>
+    <row r="899" spans="7:7">
+      <c r="G899" s="2"/>
+    </row>
+    <row r="900" spans="7:7">
+      <c r="G900" s="2"/>
+    </row>
+    <row r="901" spans="7:7">
+      <c r="G901" s="2"/>
+    </row>
+    <row r="902" spans="7:7">
+      <c r="G902" s="2"/>
+    </row>
+    <row r="903" spans="7:7">
+      <c r="G903" s="2"/>
+    </row>
+    <row r="904" spans="7:7">
+      <c r="G904" s="2"/>
+    </row>
+    <row r="905" spans="7:7">
+      <c r="G905" s="2"/>
+    </row>
+    <row r="906" spans="7:7">
+      <c r="G906" s="2"/>
+    </row>
+    <row r="907" spans="7:7">
+      <c r="G907" s="2"/>
+    </row>
+    <row r="908" spans="7:7">
+      <c r="G908" s="2"/>
+    </row>
+    <row r="909" spans="7:7">
+      <c r="G909" s="2"/>
+    </row>
+    <row r="910" spans="7:7">
+      <c r="G910" s="2"/>
+    </row>
+    <row r="911" spans="7:7">
+      <c r="G911" s="2"/>
+    </row>
+    <row r="912" spans="7:7">
+      <c r="G912" s="2"/>
+    </row>
+    <row r="913" spans="7:7">
+      <c r="G913" s="2"/>
+    </row>
+    <row r="914" spans="7:7">
+      <c r="G914" s="2"/>
+    </row>
+    <row r="915" spans="7:7">
+      <c r="G915" s="2"/>
+    </row>
+    <row r="916" spans="7:7">
+      <c r="G916" s="2"/>
+    </row>
+    <row r="917" spans="7:7">
+      <c r="G917" s="2"/>
+    </row>
+    <row r="918" spans="7:7">
+      <c r="G918" s="2"/>
+    </row>
+    <row r="919" spans="7:7">
+      <c r="G919" s="2"/>
+    </row>
+    <row r="920" spans="7:7">
+      <c r="G920" s="2"/>
+    </row>
+    <row r="921" spans="7:7">
+      <c r="G921" s="2"/>
+    </row>
+    <row r="922" spans="7:7">
+      <c r="G922" s="2"/>
+    </row>
+    <row r="923" spans="7:7">
+      <c r="G923" s="2"/>
+    </row>
+    <row r="924" spans="7:7">
+      <c r="G924" s="2"/>
+    </row>
+    <row r="925" spans="7:7">
+      <c r="G925" s="2"/>
+    </row>
+    <row r="926" spans="7:7">
+      <c r="G926" s="2"/>
+    </row>
+    <row r="927" spans="7:7">
+      <c r="G927" s="2"/>
+    </row>
+    <row r="928" spans="7:7">
+      <c r="G928" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8468,7 +10340,7 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8485,7 +10357,7 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
